--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="下单项目" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">下单项目!$A$1:$S$32</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>日期</t>
   </si>
@@ -185,20 +185,20 @@
   <si>
     <t>猛虎细嗅蔷薇  
 780308041</t>
+  </si>
+  <si>
+    <t>拳胞万岁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,345 +207,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -568,251 +244,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -823,19 +257,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -848,57 +282,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -916,7 +303,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1189,20 +576,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1212,10 +598,10 @@
     <col min="3" max="3" width="34.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="16.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.9083333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.675" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="12.05" style="1" customWidth="1"/>
+    <col min="9" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="1" customWidth="1"/>
     <col min="12" max="13" width="17.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="13.375" style="1" customWidth="1"/>
@@ -1224,7 +610,7 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:19">
+    <row r="1" spans="1:19" ht="27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +667,7 @@
       </c>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" ht="67.5" spans="1:19">
+    <row r="2" spans="1:19" ht="67.5">
       <c r="A2" s="6">
         <v>42950</v>
       </c>
@@ -1343,7 +729,7 @@
       </c>
       <c r="S2" s="8"/>
     </row>
-    <row r="3" ht="67.5" spans="1:19">
+    <row r="3" spans="1:19" ht="67.5">
       <c r="A3" s="6">
         <v>42950</v>
       </c>
@@ -1403,7 +789,7 @@
       </c>
       <c r="S3" s="8"/>
     </row>
-    <row r="4" ht="40.5" spans="1:19">
+    <row r="4" spans="1:19" ht="40.5">
       <c r="A4" s="6">
         <v>42951</v>
       </c>
@@ -1463,7 +849,7 @@
       </c>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" ht="67.5" spans="1:19">
+    <row r="5" spans="1:19" ht="67.5">
       <c r="A5" s="6">
         <v>42955</v>
       </c>
@@ -1642,7 +1028,9 @@
     <row r="10" spans="1:19">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -2249,20 +1637,19 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S32"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P32">
       <formula1>$V$45:$V$46</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2283,7 +1670,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2321,7 +1708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="27" spans="1:11">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A2" s="2">
         <v>42625</v>
       </c>
@@ -2354,7 +1741,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    <row r="3" spans="1:12" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>42626</v>
       </c>
@@ -2363,7 +1750,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:10">
+    <row r="4" spans="1:12" s="1" customFormat="1">
       <c r="A4" s="2">
         <v>42627</v>
       </c>
@@ -2371,201 +1758,198 @@
       <c r="E4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:1">
+    <row r="5" spans="1:12" s="1" customFormat="1">
       <c r="A5" s="2">
         <v>42628</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:1">
+    <row r="6" spans="1:12" s="1" customFormat="1">
       <c r="A6" s="2">
         <v>42629</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:1">
+    <row r="7" spans="1:12" s="1" customFormat="1">
       <c r="A7" s="2">
         <v>42630</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:1">
+    <row r="8" spans="1:12" s="1" customFormat="1">
       <c r="A8" s="2">
         <v>42631</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:1">
+    <row r="9" spans="1:12" s="1" customFormat="1">
       <c r="A9" s="2">
         <v>42632</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:1">
+    <row r="10" spans="1:12" s="1" customFormat="1">
       <c r="A10" s="2">
         <v>42633</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:1">
+    <row r="11" spans="1:12" s="1" customFormat="1">
       <c r="A11" s="2">
         <v>42634</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:1">
+    <row r="12" spans="1:12" s="1" customFormat="1">
       <c r="A12" s="2">
         <v>42635</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:1">
+    <row r="13" spans="1:12" s="1" customFormat="1">
       <c r="A13" s="2">
         <v>42636</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:1">
+    <row r="14" spans="1:12" s="1" customFormat="1">
       <c r="A14" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:1">
+    <row r="15" spans="1:12" s="1" customFormat="1">
       <c r="A15" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:1">
+    <row r="16" spans="1:12" s="1" customFormat="1">
       <c r="A16" s="2">
         <v>42639</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:1">
+    <row r="17" spans="1:1" s="1" customFormat="1">
       <c r="A17" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:1">
+    <row r="18" spans="1:1" s="1" customFormat="1">
       <c r="A18" s="2">
         <v>42641</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:1">
+    <row r="19" spans="1:1" s="1" customFormat="1">
       <c r="A19" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="1:1">
+    <row r="20" spans="1:1" s="1" customFormat="1">
       <c r="A20" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:1">
+    <row r="21" spans="1:1" s="1" customFormat="1">
       <c r="A21" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:1">
+    <row r="22" spans="1:1" s="1" customFormat="1">
       <c r="A22" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:1">
+    <row r="23" spans="1:1" s="1" customFormat="1">
       <c r="A23" s="2">
         <v>42646</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
+    <row r="24" spans="1:1" s="1" customFormat="1">
       <c r="A24" s="2">
         <v>42647</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:1">
+    <row r="25" spans="1:1" s="1" customFormat="1">
       <c r="A25" s="2">
         <v>42648</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
+    <row r="26" spans="1:1" s="1" customFormat="1">
       <c r="A26" s="2">
         <v>42649</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:1">
+    <row r="27" spans="1:1" s="1" customFormat="1">
       <c r="A27" s="2">
         <v>42650</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:1">
+    <row r="28" spans="1:1" s="1" customFormat="1">
       <c r="A28" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:1">
+    <row r="29" spans="1:1" s="1" customFormat="1">
       <c r="A29" s="2">
         <v>42652</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:1">
+    <row r="30" spans="1:1" s="1" customFormat="1">
       <c r="A30" s="2">
         <v>42653</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:1">
+    <row r="31" spans="1:1" s="1" customFormat="1">
       <c r="A31" s="2">
         <v>42654</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:1">
+    <row r="32" spans="1:1" s="1" customFormat="1">
       <c r="A32" s="2">
         <v>42655</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:1">
+    <row r="33" spans="1:1" s="1" customFormat="1">
       <c r="A33" s="2">
         <v>42656</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:1">
+    <row r="34" spans="1:1" s="1" customFormat="1">
       <c r="A34" s="2">
         <v>42657</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
+    <row r="35" spans="1:1" s="1" customFormat="1">
       <c r="A35" s="2">
         <v>42658</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:1">
+    <row r="36" spans="1:1" s="1" customFormat="1">
       <c r="A36" s="2">
         <v>42659</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:1">
+    <row r="37" spans="1:1" s="1" customFormat="1">
       <c r="A37" s="2">
         <v>42660</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:1">
+    <row r="38" spans="1:1" s="1" customFormat="1">
       <c r="A38" s="2">
         <v>42661</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:1">
+    <row r="39" spans="1:1" s="1" customFormat="1">
       <c r="A39" s="2">
         <v>42662</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="下单项目" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">下单项目!$A$1:$S$32</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>日期</t>
   </si>
@@ -185,20 +185,20 @@
   <si>
     <t>猛虎细嗅蔷薇  
 780308041</t>
-  </si>
-  <si>
-    <t>拳胞万岁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,21 +207,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -244,48 +568,328 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -303,7 +907,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -576,19 +1180,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="11" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -610,7 +1215,7 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="27">
+    <row r="1" ht="27" spans="1:19">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -635,13 +1240,13 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -667,963 +1272,961 @@
       </c>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:19" ht="67.5">
-      <c r="A2" s="6">
+    <row r="2" ht="67.5" spans="1:19">
+      <c r="A2" s="4">
         <v>42950</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>15950452240</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="6">
         <v>200</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="5">
         <f>H2*0.8</f>
         <v>160</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="5">
         <v>350</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="5">
         <f>J2*0.8</f>
         <v>280</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="6">
         <f>K2-I2</f>
         <v>120</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="5">
         <f>N2*0.2</f>
         <v>24</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="8">
+      <c r="P2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="5">
         <f>N2*0.8</f>
         <v>96</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="8"/>
-    </row>
-    <row r="3" spans="1:19" ht="67.5">
-      <c r="A3" s="6">
+      <c r="S2" s="5"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:19">
+      <c r="A3" s="4">
         <v>42950</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>50</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <f>H3*0.8</f>
         <v>40</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <v>100</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="5">
         <f>J3*0.8</f>
         <v>80</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>123569940</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="6">
         <f>K3-I3</f>
         <v>40</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="5">
         <f>N3*0.2</f>
         <v>8</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="8">
+      <c r="P3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="5">
         <f t="shared" ref="Q3:Q10" si="0">N3*0.8</f>
         <v>32</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="8"/>
-    </row>
-    <row r="4" spans="1:19" ht="40.5">
-      <c r="A4" s="6">
+      <c r="S3" s="5"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:19">
+      <c r="A4" s="4">
         <v>42951</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>300</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <f>H4*0.8</f>
         <v>240</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <v>500</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="5">
         <f>J4*0.8</f>
         <v>400</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <f t="shared" ref="N4:N31" si="1">K4-I4</f>
         <v>160</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="5">
         <f>N4*0.2</f>
         <v>32</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="8">
+      <c r="P4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="5">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" ht="67.5">
-      <c r="A5" s="6">
+      <c r="S4" s="5"/>
+    </row>
+    <row r="5" ht="67.5" spans="1:19">
+      <c r="A5" s="4">
         <v>42955</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>350</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="5">
         <f>H5*0.8</f>
         <v>280</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <v>450</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="5">
         <f>J5*0.8</f>
         <v>360</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="5">
         <f>N5*0.2</f>
         <v>16</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="8">
+      <c r="P5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" s="5">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="5"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="6"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="8">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="6"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="8">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="6"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="6"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="8">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="6"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="6"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="6"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="6"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
     </row>
     <row r="45" spans="22:22">
       <c r="V45" s="1" t="s">
@@ -1637,19 +2240,20 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S32"/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P32">
       <formula1>$V$45:$V$46</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1670,7 +2274,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +2312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="27">
+    <row r="2" s="1" customFormat="1" ht="27" spans="1:11">
       <c r="A2" s="2">
         <v>42625</v>
       </c>
@@ -1741,7 +2345,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="2">
         <v>42626</v>
       </c>
@@ -1750,7 +2354,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" spans="1:10">
       <c r="A4" s="2">
         <v>42627</v>
       </c>
@@ -1758,198 +2362,201 @@
       <c r="E4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="2">
         <v>42628</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="2">
         <v>42629</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" spans="1:1">
       <c r="A7" s="2">
         <v>42630</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" spans="1:1">
       <c r="A8" s="2">
         <v>42631</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" spans="1:1">
       <c r="A9" s="2">
         <v>42632</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" spans="1:1">
       <c r="A10" s="2">
         <v>42633</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" spans="1:1">
       <c r="A11" s="2">
         <v>42634</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" spans="1:1">
       <c r="A12" s="2">
         <v>42635</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1">
+    <row r="13" s="1" customFormat="1" spans="1:1">
       <c r="A13" s="2">
         <v>42636</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1">
+    <row r="14" s="1" customFormat="1" spans="1:1">
       <c r="A14" s="2">
         <v>42637</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1">
+    <row r="15" s="1" customFormat="1" spans="1:1">
       <c r="A15" s="2">
         <v>42638</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1">
+    <row r="16" s="1" customFormat="1" spans="1:1">
       <c r="A16" s="2">
         <v>42639</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="1" customFormat="1">
+    <row r="17" s="1" customFormat="1" spans="1:1">
       <c r="A17" s="2">
         <v>42640</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="1" customFormat="1">
+    <row r="18" s="1" customFormat="1" spans="1:1">
       <c r="A18" s="2">
         <v>42641</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="1" customFormat="1">
+    <row r="19" s="1" customFormat="1" spans="1:1">
       <c r="A19" s="2">
         <v>42642</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="1" customFormat="1">
+    <row r="20" s="1" customFormat="1" spans="1:1">
       <c r="A20" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="1" customFormat="1">
+    <row r="21" s="1" customFormat="1" spans="1:1">
       <c r="A21" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="1" customFormat="1">
+    <row r="22" s="1" customFormat="1" spans="1:1">
       <c r="A22" s="2">
         <v>42645</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="1" customFormat="1">
+    <row r="23" s="1" customFormat="1" spans="1:1">
       <c r="A23" s="2">
         <v>42646</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="1" customFormat="1">
+    <row r="24" s="1" customFormat="1" spans="1:1">
       <c r="A24" s="2">
         <v>42647</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="1" customFormat="1">
+    <row r="25" s="1" customFormat="1" spans="1:1">
       <c r="A25" s="2">
         <v>42648</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="1" customFormat="1">
+    <row r="26" s="1" customFormat="1" spans="1:1">
       <c r="A26" s="2">
         <v>42649</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="1" customFormat="1">
+    <row r="27" s="1" customFormat="1" spans="1:1">
       <c r="A27" s="2">
         <v>42650</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="1" customFormat="1">
+    <row r="28" s="1" customFormat="1" spans="1:1">
       <c r="A28" s="2">
         <v>42651</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="1" customFormat="1">
+    <row r="29" s="1" customFormat="1" spans="1:1">
       <c r="A29" s="2">
         <v>42652</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="1" customFormat="1">
+    <row r="30" s="1" customFormat="1" spans="1:1">
       <c r="A30" s="2">
         <v>42653</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="1" customFormat="1">
+    <row r="31" s="1" customFormat="1" spans="1:1">
       <c r="A31" s="2">
         <v>42654</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="1" customFormat="1">
+    <row r="32" s="1" customFormat="1" spans="1:1">
       <c r="A32" s="2">
         <v>42655</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="1" customFormat="1">
+    <row r="33" s="1" customFormat="1" spans="1:1">
       <c r="A33" s="2">
         <v>42656</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="1" customFormat="1">
+    <row r="34" s="1" customFormat="1" spans="1:1">
       <c r="A34" s="2">
         <v>42657</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="1" customFormat="1">
+    <row r="35" s="1" customFormat="1" spans="1:1">
       <c r="A35" s="2">
         <v>42658</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="1" customFormat="1">
+    <row r="36" s="1" customFormat="1" spans="1:1">
       <c r="A36" s="2">
         <v>42659</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="1" customFormat="1">
+    <row r="37" s="1" customFormat="1" spans="1:1">
       <c r="A37" s="2">
         <v>42660</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="1" customFormat="1">
+    <row r="38" s="1" customFormat="1" spans="1:1">
       <c r="A38" s="2">
         <v>42661</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="1" customFormat="1">
+    <row r="39" s="1" customFormat="1" spans="1:1">
       <c r="A39" s="2">
         <v>42662</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -75,7 +75,7 @@
     <t>单子状态</t>
   </si>
   <si>
-    <t>1708030001</t>
+    <t>17080001</t>
   </si>
   <si>
     <t>php微信扫描二维码服务功能</t>
@@ -104,7 +104,7 @@
     <t>已结款</t>
   </si>
   <si>
-    <t>1708030002</t>
+    <t>17080002</t>
   </si>
   <si>
     <t>Html的一个静态页面</t>
@@ -119,7 +119,7 @@
 </t>
   </si>
   <si>
-    <t>1708040003</t>
+    <t>17080003</t>
   </si>
   <si>
     <t>play框架增删改查页面</t>
@@ -139,7 +139,7 @@
     <t>结款一半</t>
   </si>
   <si>
-    <t>1708080004</t>
+    <t>17080004</t>
   </si>
   <si>
     <t xml:space="preserve">一个影院售票管理系统 用MySQL数据库和eclipseRCP程序的本地程序
@@ -226,10 +226,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="21">
@@ -250,21 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,7 +266,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,7 +288,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,15 +331,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,31 +361,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,26 +386,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -408,181 +408,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,60 +626,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -706,6 +652,60 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -722,10 +722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,137 +734,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,16 +874,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -973,7 +967,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1246,1015 +1240,1014 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="16.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="6" customWidth="1"/>
-    <col min="8" max="9" width="12" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10" style="6" customWidth="1"/>
-    <col min="11" max="12" width="17.5" style="6" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="6" customWidth="1"/>
-    <col min="14" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="11.25" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="14.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
+    <col min="8" max="9" width="12" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="12" width="17.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.375" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="11.25" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:18">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9"/>
+      <c r="R1" s="7"/>
     </row>
     <row r="2" ht="67.5" spans="1:18">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>15950452240</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="8">
         <v>200</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="7">
         <f>G2*0.8</f>
         <v>160</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="7">
         <v>350</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <f>I2*0.8</f>
         <v>280</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="8">
         <f>J2-H2</f>
         <v>120</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="7">
         <f>M2*0.2</f>
         <v>24</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="9">
+      <c r="O2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="7">
         <f>M2*0.8</f>
         <v>96</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="9"/>
+      <c r="R2" s="7"/>
     </row>
     <row r="3" ht="67.5" spans="1:18">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="8">
         <v>50</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <f>G3*0.8</f>
         <v>40</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>100</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <f>I3*0.8</f>
         <v>80</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="8">
         <v>123569940</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="8">
         <f>J3-H3</f>
         <v>40</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="7">
         <f>M3*0.2</f>
         <v>8</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="9">
+      <c r="O3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="7">
         <f t="shared" ref="P3:P10" si="0">M3*0.8</f>
         <v>32</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="9"/>
+      <c r="R3" s="7"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:18">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>300</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <f>G4*0.8</f>
         <v>240</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>500</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <f>I4*0.8</f>
         <v>400</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="8">
         <f t="shared" ref="M4:M31" si="1">J4-H4</f>
         <v>160</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="7">
         <f>M4*0.2</f>
         <v>32</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="9">
+      <c r="O4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="7">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="9"/>
+      <c r="R4" s="7"/>
     </row>
     <row r="5" ht="67.5" spans="1:18">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>350</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <f>G5*0.8</f>
         <v>280</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>450</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <f>I5*0.8</f>
         <v>360</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="8">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="N5" s="9">
+      <c r="N5" s="7">
         <f>M5*0.2</f>
         <v>16</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="9">
+      <c r="O5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="9"/>
+      <c r="R5" s="7"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="9">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="9">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" s="9">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="9">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="9">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
     </row>
     <row r="27" spans="1:18">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="10">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="10">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
     </row>
     <row r="45" spans="21:21">
-      <c r="U45" s="6" t="s">
+      <c r="U45" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="21:21">
-      <c r="U46" s="6" t="s">
+      <c r="U46" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2272,7 +2265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
@@ -2282,278 +2275,278 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="7"/>
-    <col min="2" max="2" width="14.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="44.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6"/>
-    <col min="5" max="6" width="16.375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9" style="6"/>
-    <col min="9" max="10" width="17.5" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.375" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="15.625" style="5"/>
+    <col min="2" max="2" width="14.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="6" width="16.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="10" width="17.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:12">
+      <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="27" spans="1:11">
-      <c r="A2" s="7">
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:11">
+      <c r="A2" s="5">
         <v>42625</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="2">
         <v>1900</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" s="6" customFormat="1" spans="1:10">
-      <c r="A3" s="7">
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:10">
+      <c r="A3" s="5">
         <v>42626</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" s="6" customFormat="1" spans="1:10">
-      <c r="A4" s="7">
+      <c r="C3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:10">
+      <c r="A4" s="5">
         <v>42627</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" s="6" customFormat="1" spans="1:1">
-      <c r="A5" s="7">
+      <c r="C4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:1">
+      <c r="A5" s="5">
         <v>42628</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:1">
-      <c r="A6" s="7">
+    <row r="6" s="2" customFormat="1" spans="1:1">
+      <c r="A6" s="5">
         <v>42629</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:1">
-      <c r="A7" s="7">
+    <row r="7" s="2" customFormat="1" spans="1:1">
+      <c r="A7" s="5">
         <v>42630</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:1">
-      <c r="A8" s="7">
+    <row r="8" s="2" customFormat="1" spans="1:1">
+      <c r="A8" s="5">
         <v>42631</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:1">
-      <c r="A9" s="7">
+    <row r="9" s="2" customFormat="1" spans="1:1">
+      <c r="A9" s="5">
         <v>42632</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:1">
-      <c r="A10" s="7">
+    <row r="10" s="2" customFormat="1" spans="1:1">
+      <c r="A10" s="5">
         <v>42633</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:1">
-      <c r="A11" s="7">
+    <row r="11" s="2" customFormat="1" spans="1:1">
+      <c r="A11" s="5">
         <v>42634</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:1">
-      <c r="A12" s="7">
+    <row r="12" s="2" customFormat="1" spans="1:1">
+      <c r="A12" s="5">
         <v>42635</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:1">
-      <c r="A13" s="7">
+    <row r="13" s="2" customFormat="1" spans="1:1">
+      <c r="A13" s="5">
         <v>42636</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:1">
-      <c r="A14" s="7">
+    <row r="14" s="2" customFormat="1" spans="1:1">
+      <c r="A14" s="5">
         <v>42637</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" spans="1:1">
-      <c r="A15" s="7">
+    <row r="15" s="2" customFormat="1" spans="1:1">
+      <c r="A15" s="5">
         <v>42638</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" spans="1:1">
-      <c r="A16" s="7">
+    <row r="16" s="2" customFormat="1" spans="1:1">
+      <c r="A16" s="5">
         <v>42639</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:1">
-      <c r="A17" s="7">
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="5">
         <v>42640</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" spans="1:1">
-      <c r="A18" s="7">
+    <row r="18" s="2" customFormat="1" spans="1:1">
+      <c r="A18" s="5">
         <v>42641</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:1">
-      <c r="A19" s="7">
+    <row r="19" s="2" customFormat="1" spans="1:1">
+      <c r="A19" s="5">
         <v>42642</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:1">
-      <c r="A20" s="7">
+    <row r="20" s="2" customFormat="1" spans="1:1">
+      <c r="A20" s="5">
         <v>42643</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:1">
-      <c r="A21" s="7">
+    <row r="21" s="2" customFormat="1" spans="1:1">
+      <c r="A21" s="5">
         <v>42644</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:1">
-      <c r="A22" s="7">
+    <row r="22" s="2" customFormat="1" spans="1:1">
+      <c r="A22" s="5">
         <v>42645</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:1">
-      <c r="A23" s="7">
+    <row r="23" s="2" customFormat="1" spans="1:1">
+      <c r="A23" s="5">
         <v>42646</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:1">
-      <c r="A24" s="7">
+    <row r="24" s="2" customFormat="1" spans="1:1">
+      <c r="A24" s="5">
         <v>42647</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:1">
-      <c r="A25" s="7">
+    <row r="25" s="2" customFormat="1" spans="1:1">
+      <c r="A25" s="5">
         <v>42648</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:1">
-      <c r="A26" s="7">
+    <row r="26" s="2" customFormat="1" spans="1:1">
+      <c r="A26" s="5">
         <v>42649</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:1">
-      <c r="A27" s="7">
+    <row r="27" s="2" customFormat="1" spans="1:1">
+      <c r="A27" s="5">
         <v>42650</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="1:1">
-      <c r="A28" s="7">
+    <row r="28" s="2" customFormat="1" spans="1:1">
+      <c r="A28" s="5">
         <v>42651</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" spans="1:1">
-      <c r="A29" s="7">
+    <row r="29" s="2" customFormat="1" spans="1:1">
+      <c r="A29" s="5">
         <v>42652</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" spans="1:1">
-      <c r="A30" s="7">
+    <row r="30" s="2" customFormat="1" spans="1:1">
+      <c r="A30" s="5">
         <v>42653</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" spans="1:1">
-      <c r="A31" s="7">
+    <row r="31" s="2" customFormat="1" spans="1:1">
+      <c r="A31" s="5">
         <v>42654</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" spans="1:1">
-      <c r="A32" s="7">
+    <row r="32" s="2" customFormat="1" spans="1:1">
+      <c r="A32" s="5">
         <v>42655</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="1" spans="1:1">
-      <c r="A33" s="7">
+    <row r="33" s="2" customFormat="1" spans="1:1">
+      <c r="A33" s="5">
         <v>42656</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:1">
-      <c r="A34" s="7">
+    <row r="34" s="2" customFormat="1" spans="1:1">
+      <c r="A34" s="5">
         <v>42657</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="1" spans="1:1">
-      <c r="A35" s="7">
+    <row r="35" s="2" customFormat="1" spans="1:1">
+      <c r="A35" s="5">
         <v>42658</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" spans="1:1">
-      <c r="A36" s="7">
+    <row r="36" s="2" customFormat="1" spans="1:1">
+      <c r="A36" s="5">
         <v>42659</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" spans="1:1">
-      <c r="A37" s="7">
+    <row r="37" s="2" customFormat="1" spans="1:1">
+      <c r="A37" s="5">
         <v>42660</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="1" spans="1:1">
-      <c r="A38" s="7">
+    <row r="38" s="2" customFormat="1" spans="1:1">
+      <c r="A38" s="5">
         <v>42661</v>
       </c>
     </row>
-    <row r="39" s="6" customFormat="1" spans="1:1">
-      <c r="A39" s="7">
+    <row r="39" s="2" customFormat="1" spans="1:1">
+      <c r="A39" s="5">
         <v>42662</v>
       </c>
     </row>
@@ -2565,7 +2558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -2581,25 +2574,25 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2610,7 +2603,7 @@
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="2">
         <v>170800001</v>
       </c>
@@ -2625,7 +2618,7 @@
       <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
         <v>24</v>
       </c>
@@ -2639,7 +2632,7 @@
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E31" s="1">
@@ -2650,7 +2643,7 @@
         <f>SUM(F2:F30)</f>
         <v>100</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <f>E31-F31</f>
         <v>100</v>
       </c>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="下单项目" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">下单项目!$A$1:$R$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">账务!$A$1:$H$31</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
   <si>
     <t>项目编号</t>
   </si>
@@ -75,9 +75,6 @@
     <t>单子状态</t>
   </si>
   <si>
-    <t>1708030001</t>
-  </si>
-  <si>
     <t>php微信扫描二维码服务功能</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
   </si>
   <si>
     <t>已结款</t>
-  </si>
-  <si>
-    <t>1708030002</t>
   </si>
   <si>
     <t>Html的一个静态页面</t>
@@ -119,9 +113,6 @@
 </t>
   </si>
   <si>
-    <t>1708040003</t>
-  </si>
-  <si>
     <t>play框架增删改查页面</t>
   </si>
   <si>
@@ -139,9 +130,6 @@
     <t>结款一半</t>
   </si>
   <si>
-    <t>1708080004</t>
-  </si>
-  <si>
     <t xml:space="preserve">一个影院售票管理系统 用MySQL数据库和eclipseRCP程序的本地程序
 </t>
   </si>
@@ -219,20 +207,28 @@
   </si>
   <si>
     <t>小  计</t>
+  </si>
+  <si>
+    <t>17080001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17080002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17080003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,151 +245,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,194 +264,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -616,255 +288,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -898,64 +328,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1251,12 +634,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1277,7 +659,7 @@
     <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:18">
+    <row r="1" spans="1:18" ht="27">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1331,24 +713,24 @@
       </c>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" ht="67.5" spans="1:18">
+    <row r="2" spans="1:18" ht="67.5">
       <c r="A2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="10">
         <v>15950452240</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="10">
         <v>200</v>
@@ -1365,10 +747,10 @@
         <v>280</v>
       </c>
       <c r="K2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="M2" s="10">
         <f>J2-H2</f>
@@ -1379,33 +761,33 @@
         <v>24</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="9">
         <f>M2*0.8</f>
         <v>96</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" ht="67.5">
+      <c r="A3" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" ht="67.5" spans="1:18">
-      <c r="A3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="10">
         <v>50</v>
@@ -1425,7 +807,7 @@
         <v>123569940</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M3" s="10">
         <f>J3-H3</f>
@@ -1436,33 +818,33 @@
         <v>8</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" s="9">
         <f t="shared" ref="P3:P10" si="0">M3*0.8</f>
         <v>32</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R3" s="9"/>
     </row>
-    <row r="4" ht="56" customHeight="1" spans="1:18">
+    <row r="4" spans="1:18" ht="56.1" customHeight="1">
       <c r="A4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" s="10">
         <v>300</v>
@@ -1479,10 +861,10 @@
         <v>400</v>
       </c>
       <c r="K4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="M4" s="10">
         <f t="shared" ref="M4:M31" si="1">J4-H4</f>
@@ -1493,33 +875,33 @@
         <v>32</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4" s="9">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R4" s="9"/>
     </row>
-    <row r="5" ht="67.5" spans="1:18">
-      <c r="A5" s="12" t="s">
-        <v>36</v>
+    <row r="5" spans="1:18" ht="67.5">
+      <c r="A5" s="12">
+        <v>17080004</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G5" s="10">
         <v>350</v>
@@ -1536,10 +918,10 @@
         <v>360</v>
       </c>
       <c r="K5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="M5" s="10">
         <f t="shared" si="1"/>
@@ -1550,14 +932,14 @@
         <v>16</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5" s="9">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="R5" s="9"/>
     </row>
@@ -1580,7 +962,7 @@
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P6" s="9">
         <f t="shared" si="0"/>
@@ -1608,7 +990,7 @@
       </c>
       <c r="N7" s="9"/>
       <c r="O7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P7" s="9">
         <f t="shared" si="0"/>
@@ -1636,7 +1018,7 @@
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P8" s="9">
         <f t="shared" si="0"/>
@@ -1664,7 +1046,7 @@
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P9" s="9">
         <f t="shared" si="0"/>
@@ -1692,7 +1074,7 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" s="9">
         <f t="shared" si="0"/>
@@ -1720,7 +1102,7 @@
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -1745,7 +1127,7 @@
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -1770,7 +1152,7 @@
       </c>
       <c r="N13" s="9"/>
       <c r="O13" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -1795,7 +1177,7 @@
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -1820,7 +1202,7 @@
       </c>
       <c r="N15" s="9"/>
       <c r="O15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -1845,7 +1227,7 @@
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -1870,7 +1252,7 @@
       </c>
       <c r="N17" s="9"/>
       <c r="O17" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -1895,7 +1277,7 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -1920,7 +1302,7 @@
       </c>
       <c r="N19" s="9"/>
       <c r="O19" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -1945,7 +1327,7 @@
       </c>
       <c r="N20" s="9"/>
       <c r="O20" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -1970,7 +1352,7 @@
       </c>
       <c r="N21" s="9"/>
       <c r="O21" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -1995,7 +1377,7 @@
       </c>
       <c r="N22" s="9"/>
       <c r="O22" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -2020,7 +1402,7 @@
       </c>
       <c r="N23" s="9"/>
       <c r="O23" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -2045,7 +1427,7 @@
       </c>
       <c r="N24" s="9"/>
       <c r="O24" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
@@ -2070,7 +1452,7 @@
       </c>
       <c r="N25" s="9"/>
       <c r="O25" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -2095,7 +1477,7 @@
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -2120,7 +1502,7 @@
       </c>
       <c r="N27" s="9"/>
       <c r="O27" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
@@ -2145,7 +1527,7 @@
       </c>
       <c r="N28" s="9"/>
       <c r="O28" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
@@ -2170,7 +1552,7 @@
       </c>
       <c r="N29" s="9"/>
       <c r="O29" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
@@ -2195,7 +1577,7 @@
       </c>
       <c r="N30" s="9"/>
       <c r="O30" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
@@ -2220,7 +1602,7 @@
       </c>
       <c r="N31" s="9"/>
       <c r="O31" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P31" s="9"/>
       <c r="Q31" s="9"/>
@@ -2242,7 +1624,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
@@ -2250,30 +1632,29 @@
     </row>
     <row r="45" spans="21:21">
       <c r="U45" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="21:21">
       <c r="U46" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R32"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O32">
       <formula1>$U$45:$U$46</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2294,9 +1675,9 @@
     <col min="12" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="6" customFormat="1">
       <c r="A1" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2317,7 +1698,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>10</v>
@@ -2326,46 +1707,46 @@
         <v>11</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" ht="27" spans="1:11">
+    <row r="2" spans="1:12" s="6" customFormat="1" ht="27">
       <c r="A2" s="7">
         <v>42625</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="H2" s="6">
         <v>1900</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" s="6" customFormat="1" spans="1:10">
+    <row r="3" spans="1:12" s="6" customFormat="1">
       <c r="A3" s="7">
         <v>42626</v>
       </c>
@@ -2374,7 +1755,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" s="6" customFormat="1" spans="1:10">
+    <row r="4" spans="1:12" s="6" customFormat="1">
       <c r="A4" s="7">
         <v>42627</v>
       </c>
@@ -2382,233 +1763,233 @@
       <c r="E4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" s="6" customFormat="1" spans="1:1">
+    <row r="5" spans="1:12" s="6" customFormat="1">
       <c r="A5" s="7">
         <v>42628</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:1">
+    <row r="6" spans="1:12" s="6" customFormat="1">
       <c r="A6" s="7">
         <v>42629</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:1">
+    <row r="7" spans="1:12" s="6" customFormat="1">
       <c r="A7" s="7">
         <v>42630</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:1">
+    <row r="8" spans="1:12" s="6" customFormat="1">
       <c r="A8" s="7">
         <v>42631</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" spans="1:1">
+    <row r="9" spans="1:12" s="6" customFormat="1">
       <c r="A9" s="7">
         <v>42632</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" spans="1:1">
+    <row r="10" spans="1:12" s="6" customFormat="1">
       <c r="A10" s="7">
         <v>42633</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" spans="1:1">
+    <row r="11" spans="1:12" s="6" customFormat="1">
       <c r="A11" s="7">
         <v>42634</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="1:1">
+    <row r="12" spans="1:12" s="6" customFormat="1">
       <c r="A12" s="7">
         <v>42635</v>
       </c>
     </row>
-    <row r="13" s="6" customFormat="1" spans="1:1">
+    <row r="13" spans="1:12" s="6" customFormat="1">
       <c r="A13" s="7">
         <v>42636</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" spans="1:1">
+    <row r="14" spans="1:12" s="6" customFormat="1">
       <c r="A14" s="7">
         <v>42637</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" spans="1:1">
+    <row r="15" spans="1:12" s="6" customFormat="1">
       <c r="A15" s="7">
         <v>42638</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" spans="1:1">
+    <row r="16" spans="1:12" s="6" customFormat="1">
       <c r="A16" s="7">
         <v>42639</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" spans="1:1">
+    <row r="17" spans="1:1" s="6" customFormat="1">
       <c r="A17" s="7">
         <v>42640</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" spans="1:1">
+    <row r="18" spans="1:1" s="6" customFormat="1">
       <c r="A18" s="7">
         <v>42641</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" spans="1:1">
+    <row r="19" spans="1:1" s="6" customFormat="1">
       <c r="A19" s="7">
         <v>42642</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:1">
+    <row r="20" spans="1:1" s="6" customFormat="1">
       <c r="A20" s="7">
         <v>42643</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:1">
+    <row r="21" spans="1:1" s="6" customFormat="1">
       <c r="A21" s="7">
         <v>42644</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:1">
+    <row r="22" spans="1:1" s="6" customFormat="1">
       <c r="A22" s="7">
         <v>42645</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:1">
+    <row r="23" spans="1:1" s="6" customFormat="1">
       <c r="A23" s="7">
         <v>42646</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:1">
+    <row r="24" spans="1:1" s="6" customFormat="1">
       <c r="A24" s="7">
         <v>42647</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" spans="1:1">
+    <row r="25" spans="1:1" s="6" customFormat="1">
       <c r="A25" s="7">
         <v>42648</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" spans="1:1">
+    <row r="26" spans="1:1" s="6" customFormat="1">
       <c r="A26" s="7">
         <v>42649</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:1">
+    <row r="27" spans="1:1" s="6" customFormat="1">
       <c r="A27" s="7">
         <v>42650</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="1:1">
+    <row r="28" spans="1:1" s="6" customFormat="1">
       <c r="A28" s="7">
         <v>42651</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" spans="1:1">
+    <row r="29" spans="1:1" s="6" customFormat="1">
       <c r="A29" s="7">
         <v>42652</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" spans="1:1">
+    <row r="30" spans="1:1" s="6" customFormat="1">
       <c r="A30" s="7">
         <v>42653</v>
       </c>
     </row>
-    <row r="31" s="6" customFormat="1" spans="1:1">
+    <row r="31" spans="1:1" s="6" customFormat="1">
       <c r="A31" s="7">
         <v>42654</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" spans="1:1">
+    <row r="32" spans="1:1" s="6" customFormat="1">
       <c r="A32" s="7">
         <v>42655</v>
       </c>
     </row>
-    <row r="33" s="6" customFormat="1" spans="1:1">
+    <row r="33" spans="1:1" s="6" customFormat="1">
       <c r="A33" s="7">
         <v>42656</v>
       </c>
     </row>
-    <row r="34" s="6" customFormat="1" spans="1:1">
+    <row r="34" spans="1:1" s="6" customFormat="1">
       <c r="A34" s="7">
         <v>42657</v>
       </c>
     </row>
-    <row r="35" s="6" customFormat="1" spans="1:1">
+    <row r="35" spans="1:1" s="6" customFormat="1">
       <c r="A35" s="7">
         <v>42658</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" spans="1:1">
+    <row r="36" spans="1:1" s="6" customFormat="1">
       <c r="A36" s="7">
         <v>42659</v>
       </c>
     </row>
-    <row r="37" s="6" customFormat="1" spans="1:1">
+    <row r="37" spans="1:1" s="6" customFormat="1">
       <c r="A37" s="7">
         <v>42660</v>
       </c>
     </row>
-    <row r="38" s="6" customFormat="1" spans="1:1">
+    <row r="38" spans="1:1" s="6" customFormat="1">
       <c r="A38" s="7">
         <v>42661</v>
       </c>
     </row>
-    <row r="39" s="6" customFormat="1" spans="1:1">
+    <row r="39" spans="1:1" s="6" customFormat="1">
       <c r="A39" s="7">
         <v>42662</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="17.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="17.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2">
@@ -2618,29 +1999,29 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:2">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>
@@ -2657,8 +2038,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H31"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>项目编号</t>
   </si>
@@ -136,9 +136,6 @@
     <t>2017.08.04</t>
   </si>
   <si>
-    <t>结款一半</t>
-  </si>
-  <si>
     <t>17080004</t>
   </si>
   <si>
@@ -150,7 +147,7 @@
 13</t>
   </si>
   <si>
-    <t>开发中</t>
+    <t>结款一半</t>
   </si>
   <si>
     <t>欧大旷</t>
@@ -229,8 +226,8 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -250,7 +247,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,38 +292,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,14 +314,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -331,9 +322,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,31 +362,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,19 +384,11 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -408,31 +405,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,151 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,35 +614,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,21 +668,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -714,6 +678,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -722,10 +719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -734,133 +731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,8 +1245,8 @@
   <sheetPr/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P2:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1493,16 +1490,16 @@
         <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="R4" s="7"/>
     </row>
     <row r="5" ht="67.5" spans="1:18">
       <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>19</v>
@@ -1512,7 +1509,7 @@
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8">
         <v>350</v>
@@ -1550,7 +1547,7 @@
         <v>64</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R5" s="7"/>
     </row>
@@ -2248,7 +2245,7 @@
     </row>
     <row r="46" spans="21:21">
       <c r="U46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2286,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2310,7 +2307,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -2319,7 +2316,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
@@ -2330,31 +2327,31 @@
         <v>42625</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="H2" s="2">
         <v>1900</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K2" s="6"/>
     </row>
@@ -2575,33 +2572,33 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2">
@@ -2613,10 +2610,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
@@ -2628,12 +2625,12 @@
     </row>
     <row r="4" customHeight="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="下单项目" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="67">
   <si>
     <t>项目编号</t>
   </si>
@@ -219,6 +219,25 @@
   <si>
     <t>17080003</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">写个爬虫，全国工商局商标网综合查询
+语言用Python，数据库用MySQL </t>
+  </si>
+  <si>
+    <t>matlab   代写代码460417925</t>
+  </si>
+  <si>
+    <t>java+2+0nise 758841765</t>
+  </si>
+  <si>
+    <t>2017.8.17</t>
+  </si>
+  <si>
+    <t>什么都会</t>
+  </si>
+  <si>
+    <t>大王号</t>
   </si>
 </sst>
 </file>
@@ -226,7 +245,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -294,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -316,23 +335,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,26 +650,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="6"/>
-    <col min="4" max="4" width="16.375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="6" customWidth="1"/>
-    <col min="8" max="9" width="12" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10" style="6" customWidth="1"/>
-    <col min="11" max="12" width="17.5" style="6" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="6" customWidth="1"/>
-    <col min="14" max="15" width="9" style="6"/>
-    <col min="16" max="16" width="11.25" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="14.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9" style="8"/>
+    <col min="4" max="4" width="16.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="8" customWidth="1"/>
+    <col min="8" max="9" width="12" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10" style="8" customWidth="1"/>
+    <col min="11" max="12" width="17.5" style="8" customWidth="1"/>
+    <col min="13" max="13" width="13.375" style="8" customWidth="1"/>
+    <col min="14" max="15" width="9" style="8"/>
+    <col min="16" max="16" width="11.25" style="8" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="27">
@@ -681,13 +694,13 @@
       <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="9" t="s">
@@ -714,25 +727,25 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:18" ht="67.5">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="9">
         <v>15950452240</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>200</v>
       </c>
       <c r="H2" s="9">
@@ -746,13 +759,13 @@
         <f>I2*0.8</f>
         <v>280</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <f>J2-H2</f>
         <v>120</v>
       </c>
@@ -773,23 +786,23 @@
       <c r="R2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="67.5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>50</v>
       </c>
       <c r="H3" s="9">
@@ -803,13 +816,13 @@
         <f>I3*0.8</f>
         <v>80</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>123569940</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <f>J3-H3</f>
         <v>40</v>
       </c>
@@ -830,23 +843,23 @@
       <c r="R3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="56.1" customHeight="1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>300</v>
       </c>
       <c r="H4" s="9">
@@ -860,13 +873,13 @@
         <f>I4*0.8</f>
         <v>400</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <f t="shared" ref="M4:M31" si="1">J4-H4</f>
         <v>160</v>
       </c>
@@ -887,23 +900,23 @@
       <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" ht="67.5">
-      <c r="A5" s="12">
+      <c r="A5" s="10">
         <v>17080004</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>350</v>
       </c>
       <c r="H5" s="9">
@@ -917,13 +930,13 @@
         <f>I5*0.8</f>
         <v>360</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -943,32 +956,56 @@
       </c>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+    <row r="6" spans="1:18" ht="40.5" customHeight="1">
+      <c r="A6" s="9">
+        <v>17080005</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="9">
+        <v>800</v>
+      </c>
+      <c r="H6" s="9">
+        <v>640</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="9">
+        <v>560</v>
+      </c>
+      <c r="N6" s="9">
+        <v>112</v>
+      </c>
       <c r="O6" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="9"/>
+        <v>448</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="R6" s="9"/>
     </row>
     <row r="7" spans="1:18">
@@ -984,7 +1021,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1012,7 +1049,7 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1040,7 +1077,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1068,7 +1105,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1096,7 +1133,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1112,16 +1149,16 @@
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10">
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1146,7 +1183,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="10">
+      <c r="M13" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1171,7 +1208,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="10">
+      <c r="M14" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1196,7 +1233,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="10">
+      <c r="M15" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1221,7 +1258,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="10">
+      <c r="M16" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1246,7 +1283,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="10">
+      <c r="M17" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1271,7 +1308,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="10">
+      <c r="M18" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1296,7 +1333,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="10">
+      <c r="M19" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1321,7 +1358,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="10">
+      <c r="M20" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1346,7 +1383,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="10">
+      <c r="M21" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1371,7 +1408,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="10">
+      <c r="M22" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1396,7 +1433,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="10">
+      <c r="M23" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1421,7 +1458,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="10">
+      <c r="M24" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1446,7 +1483,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
-      <c r="M25" s="10">
+      <c r="M25" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1471,7 +1508,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
-      <c r="M26" s="10">
+      <c r="M26" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1496,7 +1533,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="10">
+      <c r="M27" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1521,7 +1558,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
-      <c r="M28" s="10">
+      <c r="M28" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1546,7 +1583,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
-      <c r="M29" s="10">
+      <c r="M29" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1571,7 +1608,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
-      <c r="M30" s="10">
+      <c r="M30" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1596,7 +1633,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="10">
+      <c r="M31" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1631,12 +1668,12 @@
       <c r="R32" s="9"/>
     </row>
     <row r="45" spans="21:21">
-      <c r="U45" s="6" t="s">
+      <c r="U45" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="21:21">
-      <c r="U46" s="6" t="s">
+      <c r="U46" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1649,7 +1686,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1949,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="下单项目" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">下单项目!$A$1:$R$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">账务!$A$1:$H$31</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
   <si>
     <t>项目编号</t>
   </si>
@@ -45,9 +45,6 @@
   <si>
     <t>技术员报价
 应得款</t>
-  </si>
-  <si>
-    <t>上游报价总价</t>
   </si>
   <si>
     <t>上游总价
@@ -143,10 +140,6 @@
 </t>
   </si>
   <si>
-    <t>2017.08.
-13</t>
-  </si>
-  <si>
     <t>结款一半</t>
   </si>
   <si>
@@ -216,20 +209,106 @@
   </si>
   <si>
     <t>小  计</t>
+  </si>
+  <si>
+    <t>写个爬虫，全国工商局商标网综合查询，语言Pythen，有防爬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">java+2+0nise </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>758841765</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么都会</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大王号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧大旷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言：Java   初中自动排课</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户976880638</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户568112945</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Java-3年-心的边缘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>363509263</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.08.13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2017.08.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上游报价总价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,151 +325,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,194 +359,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -613,255 +383,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,76 +405,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -964,7 +442,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1237,37 +715,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P2:P5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="12" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10" style="2" customWidth="1"/>
-    <col min="11" max="12" width="17.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="2" customWidth="1"/>
-    <col min="14" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="11.25" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="34.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="6" customWidth="1"/>
+    <col min="8" max="9" width="12" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10" style="6" customWidth="1"/>
+    <col min="11" max="12" width="17.5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="13.375" style="6" customWidth="1"/>
+    <col min="14" max="15" width="9" style="6"/>
+    <col min="16" max="16" width="11.25" style="6" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:18">
+    <row r="1" spans="1:18" ht="46.5" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1289,58 +767,58 @@
       <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" ht="46.5" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7"/>
-    </row>
-    <row r="2" ht="67.5" spans="1:18">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="7">
+        <v>15950452240</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="8">
-        <v>15950452240</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>200</v>
       </c>
       <c r="H2" s="7">
@@ -1354,13 +832,13 @@
         <f>I2*0.8</f>
         <v>280</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <f>J2-H2</f>
         <v>120</v>
       </c>
@@ -1369,35 +847,35 @@
         <v>24</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P2" s="7">
         <f>M2*0.8</f>
         <v>96</v>
       </c>
       <c r="Q2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="7"/>
+    </row>
+    <row r="3" spans="1:18" ht="46.5" customHeight="1">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="7"/>
-    </row>
-    <row r="3" ht="67.5" spans="1:18">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="8">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7">
         <v>50</v>
       </c>
       <c r="H3" s="7">
@@ -1411,13 +889,13 @@
         <f>I3*0.8</f>
         <v>80</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>123569940</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="8">
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="7">
         <f>J3-H3</f>
         <v>40</v>
       </c>
@@ -1426,39 +904,38 @@
         <v>8</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" s="7">
         <f t="shared" ref="P3:P10" si="0">M3*0.8</f>
         <v>32</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" ht="56" customHeight="1" spans="1:18">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:18" ht="46.5" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>300</v>
       </c>
       <c r="H4" s="7">
-        <f>G4*0.8</f>
         <v>240</v>
       </c>
       <c r="I4" s="7">
@@ -1468,13 +945,13 @@
         <f>I4*0.8</f>
         <v>400</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <f t="shared" ref="M4:M31" si="1">J4-H4</f>
         <v>160</v>
       </c>
@@ -1483,39 +960,38 @@
         <v>32</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P4" s="7">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" ht="67.5" spans="1:18">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:18" ht="46.5" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>33</v>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="F5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="7">
         <v>350</v>
       </c>
       <c r="H5" s="7">
-        <f>G5*0.8</f>
         <v>280</v>
       </c>
       <c r="I5" s="7">
@@ -1525,13 +1001,13 @@
         <f>I5*0.8</f>
         <v>360</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
@@ -1540,74 +1016,124 @@
         <v>16</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+    <row r="6" spans="1:18" ht="46.5" customHeight="1">
+      <c r="A6" s="7">
+        <v>17080005</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7" t="s">
-        <v>24</v>
+      <c r="F6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="7">
+        <v>800</v>
+      </c>
+      <c r="H6" s="7">
+        <v>640</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1200</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="7">
+        <v>560</v>
+      </c>
+      <c r="N6" s="7">
+        <v>112</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="P6" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7"/>
+        <v>448</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+    <row r="7" spans="1:18" ht="46.5" customHeight="1">
+      <c r="A7" s="7">
+        <v>17080006</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+      <c r="F7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="7">
+        <v>300</v>
+      </c>
+      <c r="H7" s="7">
+        <v>240</v>
+      </c>
+      <c r="I7" s="7">
+        <v>500</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="7">
+        <v>260</v>
+      </c>
+      <c r="N7" s="7">
+        <v>52</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7"/>
+        <v>208</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>64</v>
+      </c>
       <c r="R7" s="7"/>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" ht="46.5" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -1620,13 +1146,13 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P8" s="7">
         <f t="shared" si="0"/>
@@ -1635,7 +1161,7 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" ht="46.5" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1648,13 +1174,13 @@
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P9" s="7">
         <f t="shared" si="0"/>
@@ -1663,7 +1189,7 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" ht="46.5" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1676,13 +1202,13 @@
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" s="7">
         <f t="shared" si="0"/>
@@ -1691,7 +1217,7 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" ht="46.5" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1704,44 +1230,44 @@
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" ht="46.5" customHeight="1">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" ht="46.5" customHeight="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1754,19 +1280,19 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" ht="46.5" customHeight="1">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1779,19 +1305,19 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" ht="46.5" customHeight="1">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1804,19 +1330,19 @@
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
-      <c r="M15" s="8">
+      <c r="M15" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" ht="46.5" customHeight="1">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1829,19 +1355,19 @@
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
-      <c r="M16" s="8">
+      <c r="M16" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" ht="46.5" customHeight="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1854,19 +1380,19 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="8">
+      <c r="M17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" ht="46.5" customHeight="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1879,19 +1405,19 @@
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="8">
+      <c r="M18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" ht="46.5" customHeight="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1904,19 +1430,19 @@
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="8">
+      <c r="M19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" ht="46.5" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1929,19 +1455,19 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
-      <c r="M20" s="8">
+      <c r="M20" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" ht="46.5" customHeight="1">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1954,19 +1480,19 @@
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
-      <c r="M21" s="8">
+      <c r="M21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" ht="46.5" customHeight="1">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1979,19 +1505,19 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" ht="46.5" customHeight="1">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2004,19 +1530,19 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
-      <c r="M23" s="8">
+      <c r="M23" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" ht="46.5" customHeight="1">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -2029,19 +1555,19 @@
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" ht="46.5" customHeight="1">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -2054,19 +1580,19 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-      <c r="M25" s="8">
+      <c r="M25" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" ht="46.5" customHeight="1">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -2079,19 +1605,19 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="8">
+      <c r="M26" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" ht="46.5" customHeight="1">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -2104,19 +1630,19 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-      <c r="M27" s="8">
+      <c r="M27" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" ht="46.5" customHeight="1">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -2129,19 +1655,19 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="8">
+      <c r="M28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" ht="46.5" customHeight="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -2154,19 +1680,19 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="8">
+      <c r="M29" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" ht="46.5" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -2179,19 +1705,19 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-      <c r="M30" s="8">
+      <c r="M30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" ht="46.5" customHeight="1">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2204,19 +1730,19 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="8">
+      <c r="M31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" ht="46.5" customHeight="1">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -2232,38 +1758,37 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="45" spans="21:21">
-      <c r="U45" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="21:21">
-      <c r="U46" s="2" t="s">
-        <v>39</v>
+    <row r="45" spans="21:21" ht="46.5" customHeight="1">
+      <c r="U45" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="21:21" ht="46.5" customHeight="1">
+      <c r="U46" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R32"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O32">
       <formula1>$U$45:$U$46</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2284,9 +1809,9 @@
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:12">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2307,55 +1832,55 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="27" spans="1:11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="27">
       <c r="A2" s="5">
         <v>42625</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="H2" s="2">
         <v>1900</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:10">
+    <row r="3" spans="1:12" s="2" customFormat="1">
       <c r="A3" s="5">
         <v>42626</v>
       </c>
@@ -2364,7 +1889,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:10">
+    <row r="4" spans="1:12" s="2" customFormat="1">
       <c r="A4" s="5">
         <v>42627</v>
       </c>
@@ -2372,233 +1897,233 @@
       <c r="E4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:1">
+    <row r="5" spans="1:12" s="2" customFormat="1">
       <c r="A5" s="5">
         <v>42628</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:1">
+    <row r="6" spans="1:12" s="2" customFormat="1">
       <c r="A6" s="5">
         <v>42629</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:1">
+    <row r="7" spans="1:12" s="2" customFormat="1">
       <c r="A7" s="5">
         <v>42630</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:1">
+    <row r="8" spans="1:12" s="2" customFormat="1">
       <c r="A8" s="5">
         <v>42631</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:1">
+    <row r="9" spans="1:12" s="2" customFormat="1">
       <c r="A9" s="5">
         <v>42632</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:1">
+    <row r="10" spans="1:12" s="2" customFormat="1">
       <c r="A10" s="5">
         <v>42633</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:1">
+    <row r="11" spans="1:12" s="2" customFormat="1">
       <c r="A11" s="5">
         <v>42634</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:1">
+    <row r="12" spans="1:12" s="2" customFormat="1">
       <c r="A12" s="5">
         <v>42635</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:1">
+    <row r="13" spans="1:12" s="2" customFormat="1">
       <c r="A13" s="5">
         <v>42636</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:1">
+    <row r="14" spans="1:12" s="2" customFormat="1">
       <c r="A14" s="5">
         <v>42637</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:1">
+    <row r="15" spans="1:12" s="2" customFormat="1">
       <c r="A15" s="5">
         <v>42638</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:1">
+    <row r="16" spans="1:12" s="2" customFormat="1">
       <c r="A16" s="5">
         <v>42639</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:1">
+    <row r="17" spans="1:1" s="2" customFormat="1">
       <c r="A17" s="5">
         <v>42640</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:1">
+    <row r="18" spans="1:1" s="2" customFormat="1">
       <c r="A18" s="5">
         <v>42641</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:1">
+    <row r="19" spans="1:1" s="2" customFormat="1">
       <c r="A19" s="5">
         <v>42642</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:1">
+    <row r="20" spans="1:1" s="2" customFormat="1">
       <c r="A20" s="5">
         <v>42643</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:1">
+    <row r="21" spans="1:1" s="2" customFormat="1">
       <c r="A21" s="5">
         <v>42644</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:1">
+    <row r="22" spans="1:1" s="2" customFormat="1">
       <c r="A22" s="5">
         <v>42645</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:1">
+    <row r="23" spans="1:1" s="2" customFormat="1">
       <c r="A23" s="5">
         <v>42646</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:1">
+    <row r="24" spans="1:1" s="2" customFormat="1">
       <c r="A24" s="5">
         <v>42647</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:1">
+    <row r="25" spans="1:1" s="2" customFormat="1">
       <c r="A25" s="5">
         <v>42648</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:1">
+    <row r="26" spans="1:1" s="2" customFormat="1">
       <c r="A26" s="5">
         <v>42649</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:1">
+    <row r="27" spans="1:1" s="2" customFormat="1">
       <c r="A27" s="5">
         <v>42650</v>
       </c>
     </row>
-    <row r="28" s="2" customFormat="1" spans="1:1">
+    <row r="28" spans="1:1" s="2" customFormat="1">
       <c r="A28" s="5">
         <v>42651</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" spans="1:1">
+    <row r="29" spans="1:1" s="2" customFormat="1">
       <c r="A29" s="5">
         <v>42652</v>
       </c>
     </row>
-    <row r="30" s="2" customFormat="1" spans="1:1">
+    <row r="30" spans="1:1" s="2" customFormat="1">
       <c r="A30" s="5">
         <v>42653</v>
       </c>
     </row>
-    <row r="31" s="2" customFormat="1" spans="1:1">
+    <row r="31" spans="1:1" s="2" customFormat="1">
       <c r="A31" s="5">
         <v>42654</v>
       </c>
     </row>
-    <row r="32" s="2" customFormat="1" spans="1:1">
+    <row r="32" spans="1:1" s="2" customFormat="1">
       <c r="A32" s="5">
         <v>42655</v>
       </c>
     </row>
-    <row r="33" s="2" customFormat="1" spans="1:1">
+    <row r="33" spans="1:1" s="2" customFormat="1">
       <c r="A33" s="5">
         <v>42656</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:1">
+    <row r="34" spans="1:1" s="2" customFormat="1">
       <c r="A34" s="5">
         <v>42657</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="1" spans="1:1">
+    <row r="35" spans="1:1" s="2" customFormat="1">
       <c r="A35" s="5">
         <v>42658</v>
       </c>
     </row>
-    <row r="36" s="2" customFormat="1" spans="1:1">
+    <row r="36" spans="1:1" s="2" customFormat="1">
       <c r="A36" s="5">
         <v>42659</v>
       </c>
     </row>
-    <row r="37" s="2" customFormat="1" spans="1:1">
+    <row r="37" spans="1:1" s="2" customFormat="1">
       <c r="A37" s="5">
         <v>42660</v>
       </c>
     </row>
-    <row r="38" s="2" customFormat="1" spans="1:1">
+    <row r="38" spans="1:1" s="2" customFormat="1">
       <c r="A38" s="5">
         <v>42661</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:1">
+    <row r="39" spans="1:1" s="2" customFormat="1">
       <c r="A39" s="5">
         <v>42662</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="17.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="17.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2">
@@ -2608,29 +2133,29 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="2:2">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="B4" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>
@@ -2647,8 +2172,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H31"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="下单项目" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">下单项目!$A$1:$R$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">账务!$A$1:$H$31</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>项目编号</t>
   </si>
@@ -45,6 +45,9 @@
   <si>
     <t>技术员报价
 应得款</t>
+  </si>
+  <si>
+    <t>上游报价总价</t>
   </si>
   <si>
     <t>上游总价
@@ -140,82 +143,25 @@
 </t>
   </si>
   <si>
+    <t>2017.08.13</t>
+  </si>
+  <si>
     <t>结款一半</t>
   </si>
   <si>
-    <t>欧大旷</t>
-  </si>
-  <si>
-    <t>日期</t>
-  </si>
-  <si>
-    <t>上游总价</t>
-  </si>
-  <si>
-    <t>该单收益</t>
-  </si>
-  <si>
-    <t>9.6-1</t>
-  </si>
-  <si>
-    <t>图论归一化</t>
-  </si>
-  <si>
-    <t>银河群</t>
-  </si>
-  <si>
-    <t>MATLAB+7年+男神
-(865883265)</t>
-  </si>
-  <si>
-    <t>未定</t>
-  </si>
-  <si>
-    <t>900到手</t>
-  </si>
-  <si>
-    <t>猛虎细嗅蔷薇  
-780308041</t>
-  </si>
-  <si>
-    <t>资金类别</t>
-  </si>
-  <si>
-    <t>摘要</t>
-  </si>
-  <si>
-    <t>收入</t>
-  </si>
-  <si>
-    <t>支付</t>
-  </si>
-  <si>
-    <t>结余</t>
-  </si>
-  <si>
-    <t>2017.08.12</t>
-  </si>
-  <si>
-    <t>收款</t>
-  </si>
-  <si>
-    <t>2017.09.20</t>
-  </si>
-  <si>
-    <t>付款</t>
-  </si>
-  <si>
-    <t>投资</t>
-  </si>
-  <si>
-    <t>小  计</t>
-  </si>
-  <si>
     <t>写个爬虫，全国工商局商标网综合查询，语言Pythen，有防爬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户568112945</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">java+2+0nise </t>
     </r>
     <r>
@@ -223,44 +169,56 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>758841765</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2017.08.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
   </si>
   <si>
     <t>什么都会</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>大王号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>欧大旷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工作中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>语言：Java   初中自动排课</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>客户976880638</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户568112945</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Java-3年-心的边缘</t>
     </r>
     <r>
@@ -268,47 +226,103 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>363509263</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017.08.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2017.08.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上游报价总价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才济济
+451322344</t>
+  </si>
+  <si>
+    <t>前端+2+小羔羊
+932581299</t>
+  </si>
+  <si>
+    <t>2017.08.16</t>
+  </si>
+  <si>
+    <t>已交付</t>
+  </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>上游总价</t>
+  </si>
+  <si>
+    <t>该单收益</t>
+  </si>
+  <si>
+    <t>9.6-1</t>
+  </si>
+  <si>
+    <t>图论归一化</t>
+  </si>
+  <si>
+    <t>银河群</t>
+  </si>
+  <si>
+    <t>MATLAB+7年+男神
+(865883265)</t>
+  </si>
+  <si>
+    <t>未定</t>
+  </si>
+  <si>
+    <t>900到手</t>
+  </si>
+  <si>
+    <t>猛虎细嗅蔷薇  
+780308041</t>
+  </si>
+  <si>
+    <t>资金类别</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>收入</t>
+  </si>
+  <si>
+    <t>支付</t>
+  </si>
+  <si>
+    <t>结余</t>
+  </si>
+  <si>
+    <t>2017.08.12</t>
+  </si>
+  <si>
+    <t>收款</t>
+  </si>
+  <si>
+    <t>2017.09.20</t>
+  </si>
+  <si>
+    <t>付款</t>
+  </si>
+  <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>小  计</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,7 +339,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -334,19 +349,148 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +503,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -383,13 +713,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,7 +977,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -414,17 +986,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -442,7 +1061,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -715,23 +1334,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="34.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="6" customWidth="1"/>
@@ -745,7 +1364,7 @@
     <col min="17" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="46.5" customHeight="1">
+    <row r="1" customHeight="1" spans="1:18">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -770,53 +1389,53 @@
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>71</v>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:18" ht="46.5" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
+    <row r="2" customHeight="1" spans="1:18">
+      <c r="A2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7">
         <v>15950452240</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="7">
         <v>200</v>
@@ -833,10 +1452,10 @@
         <v>280</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="7">
         <f>J2-H2</f>
@@ -847,33 +1466,33 @@
         <v>24</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" s="7">
         <f>M2*0.8</f>
         <v>96</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R2" s="7"/>
     </row>
-    <row r="3" spans="1:18" ht="46.5" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>25</v>
+    <row r="3" customHeight="1" spans="1:18">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="7">
         <v>50</v>
@@ -886,14 +1505,14 @@
         <v>100</v>
       </c>
       <c r="J3" s="7">
-        <f>I3*0.8</f>
+        <f t="shared" ref="J3:J8" si="0">I3*0.8</f>
         <v>80</v>
       </c>
       <c r="K3" s="7">
         <v>123569940</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="7">
         <f>J3-H3</f>
@@ -904,55 +1523,56 @@
         <v>8</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3" s="7">
-        <f t="shared" ref="P3:P10" si="0">M3*0.8</f>
+        <f t="shared" ref="P3:P10" si="1">M3*0.8</f>
         <v>32</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R3" s="7"/>
     </row>
-    <row r="4" spans="1:18" ht="46.5" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>29</v>
+    <row r="4" customHeight="1" spans="1:18">
+      <c r="A4" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="7">
         <v>300</v>
       </c>
       <c r="H4" s="7">
+        <f>G4*0.8</f>
         <v>240</v>
       </c>
       <c r="I4" s="7">
         <v>500</v>
       </c>
       <c r="J4" s="7">
-        <f>I4*0.8</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" ref="M4:M31" si="1">J4-H4</f>
+        <f t="shared" ref="M4:M31" si="2">J4-H4</f>
         <v>160</v>
       </c>
       <c r="N4" s="7">
@@ -960,55 +1580,56 @@
         <v>32</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" spans="1:18" ht="46.5" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>34</v>
+    <row r="5" customHeight="1" spans="1:18">
+      <c r="A5" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5" s="7"/>
-      <c r="F5" s="9" t="s">
-        <v>69</v>
+      <c r="F5" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G5" s="7">
         <v>350</v>
       </c>
       <c r="H5" s="7">
+        <f>G5*0.8</f>
         <v>280</v>
       </c>
       <c r="I5" s="7">
         <v>450</v>
       </c>
       <c r="J5" s="7">
-        <f>I5*0.8</f>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="N5" s="7">
@@ -1016,38 +1637,39 @@
         <v>16</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="R5" s="7"/>
     </row>
-    <row r="6" spans="1:18" ht="46.5" customHeight="1">
+    <row r="6" customHeight="1" spans="1:18">
       <c r="A6" s="7">
         <v>17080005</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="9" t="s">
-        <v>70</v>
+      <c r="F6" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G6" s="7">
         <v>800</v>
       </c>
       <c r="H6" s="7">
+        <f>G6*0.8</f>
         <v>640</v>
       </c>
       <c r="I6" s="7">
@@ -1056,51 +1678,53 @@
       <c r="J6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>62</v>
+      <c r="K6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="M6" s="7">
         <v>560</v>
       </c>
       <c r="N6" s="7">
+        <f>M6*0.2</f>
         <v>112</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>63</v>
+      <c r="O6" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>448</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>64</v>
+      <c r="Q6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="R6" s="7"/>
     </row>
-    <row r="7" spans="1:18" ht="46.5" customHeight="1">
+    <row r="7" customHeight="1" spans="1:18">
       <c r="A7" s="7">
         <v>17080006</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>68</v>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="7"/>
-      <c r="F7" s="9" t="s">
-        <v>70</v>
+      <c r="F7" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="G7" s="7">
         <v>300</v>
       </c>
       <c r="H7" s="7">
+        <f>G7*0.8</f>
         <v>240</v>
       </c>
       <c r="I7" s="7">
@@ -1109,59 +1733,91 @@
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>62</v>
+      <c r="K7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>260</v>
       </c>
       <c r="N7" s="7">
+        <f>M7*0.2</f>
         <v>52</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:18">
+      <c r="A8" s="7">
+        <v>17080007</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="7">
+        <v>13547820884</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
+      <c r="H8" s="7">
+        <f>G8*0.8</f>
+        <v>80</v>
+      </c>
+      <c r="I8" s="7">
+        <v>200</v>
+      </c>
+      <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>208</v>
-      </c>
-      <c r="Q7" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="7">
+        <v>123569940</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="7">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="N8" s="7">
+        <f>M8*0.2</f>
+        <v>16</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" ht="46.5" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="R8" s="7"/>
     </row>
-    <row r="9" spans="1:18" ht="46.5" customHeight="1">
+    <row r="9" customHeight="1" spans="1:18">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1175,21 +1831,21 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
     </row>
-    <row r="10" spans="1:18" ht="46.5" customHeight="1">
+    <row r="10" customHeight="1" spans="1:18">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -1203,21 +1859,21 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
     </row>
-    <row r="11" spans="1:18" ht="46.5" customHeight="1">
+    <row r="11" customHeight="1" spans="1:18">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1231,18 +1887,18 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
-    <row r="12" spans="1:18" ht="46.5" customHeight="1">
+    <row r="12" customHeight="1" spans="1:18">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1256,18 +1912,18 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
-    <row r="13" spans="1:18" ht="46.5" customHeight="1">
+    <row r="13" customHeight="1" spans="1:18">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1281,18 +1937,18 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
-    <row r="14" spans="1:18" ht="46.5" customHeight="1">
+    <row r="14" customHeight="1" spans="1:18">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1306,18 +1962,18 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
-    <row r="15" spans="1:18" ht="46.5" customHeight="1">
+    <row r="15" customHeight="1" spans="1:18">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1331,18 +1987,18 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>
-    <row r="16" spans="1:18" ht="46.5" customHeight="1">
+    <row r="16" customHeight="1" spans="1:18">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1356,18 +2012,18 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
     </row>
-    <row r="17" spans="1:18" ht="46.5" customHeight="1">
+    <row r="17" customHeight="1" spans="1:18">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1381,18 +2037,18 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
     </row>
-    <row r="18" spans="1:18" ht="46.5" customHeight="1">
+    <row r="18" customHeight="1" spans="1:18">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1406,18 +2062,18 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
     </row>
-    <row r="19" spans="1:18" ht="46.5" customHeight="1">
+    <row r="19" customHeight="1" spans="1:18">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1431,18 +2087,18 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
     </row>
-    <row r="20" spans="1:18" ht="46.5" customHeight="1">
+    <row r="20" customHeight="1" spans="1:18">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -1456,18 +2112,18 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
     </row>
-    <row r="21" spans="1:18" ht="46.5" customHeight="1">
+    <row r="21" customHeight="1" spans="1:18">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1481,18 +2137,18 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
     </row>
-    <row r="22" spans="1:18" ht="46.5" customHeight="1">
+    <row r="22" customHeight="1" spans="1:18">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1506,18 +2162,18 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
     </row>
-    <row r="23" spans="1:18" ht="46.5" customHeight="1">
+    <row r="23" customHeight="1" spans="1:18">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1531,18 +2187,18 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
     </row>
-    <row r="24" spans="1:18" ht="46.5" customHeight="1">
+    <row r="24" customHeight="1" spans="1:18">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -1556,18 +2212,18 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
     </row>
-    <row r="25" spans="1:18" ht="46.5" customHeight="1">
+    <row r="25" customHeight="1" spans="1:18">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1581,18 +2237,18 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
     </row>
-    <row r="26" spans="1:18" ht="46.5" customHeight="1">
+    <row r="26" customHeight="1" spans="1:18">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1606,18 +2262,18 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
     </row>
-    <row r="27" spans="1:18" ht="46.5" customHeight="1">
+    <row r="27" customHeight="1" spans="1:18">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1631,18 +2287,18 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
     </row>
-    <row r="28" spans="1:18" ht="46.5" customHeight="1">
+    <row r="28" customHeight="1" spans="1:18">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1656,18 +2312,18 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
     </row>
-    <row r="29" spans="1:18" ht="46.5" customHeight="1">
+    <row r="29" customHeight="1" spans="1:18">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1681,18 +2337,18 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
     </row>
-    <row r="30" spans="1:18" ht="46.5" customHeight="1">
+    <row r="30" customHeight="1" spans="1:18">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1706,18 +2362,18 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
     </row>
-    <row r="31" spans="1:18" ht="46.5" customHeight="1">
+    <row r="31" customHeight="1" spans="1:18">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1731,18 +2387,18 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
     </row>
-    <row r="32" spans="1:18" ht="46.5" customHeight="1">
+    <row r="32" customHeight="1" spans="1:18">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1758,37 +2414,38 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
     </row>
-    <row r="45" spans="21:21" ht="46.5" customHeight="1">
+    <row r="45" customHeight="1" spans="21:21">
       <c r="U45" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="21:21" ht="46.5" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="21:21">
       <c r="U46" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R32"/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O32">
       <formula1>$U$45:$U$46</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1809,9 +2466,9 @@
     <col min="12" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" s="2" customFormat="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1832,55 +2489,55 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="27" spans="1:11">
       <c r="A2" s="5">
         <v>42625</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2">
         <v>1900</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1">
+    <row r="3" s="2" customFormat="1" spans="1:10">
       <c r="A3" s="5">
         <v>42626</v>
       </c>
@@ -1889,7 +2546,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1">
+    <row r="4" s="2" customFormat="1" spans="1:10">
       <c r="A4" s="5">
         <v>42627</v>
       </c>
@@ -1897,197 +2554,198 @@
       <c r="E4" s="6"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1">
+    <row r="5" s="2" customFormat="1" spans="1:1">
       <c r="A5" s="5">
         <v>42628</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1">
+    <row r="6" s="2" customFormat="1" spans="1:1">
       <c r="A6" s="5">
         <v>42629</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1">
+    <row r="7" s="2" customFormat="1" spans="1:1">
       <c r="A7" s="5">
         <v>42630</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1">
+    <row r="8" s="2" customFormat="1" spans="1:1">
       <c r="A8" s="5">
         <v>42631</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1">
+    <row r="9" s="2" customFormat="1" spans="1:1">
       <c r="A9" s="5">
         <v>42632</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1">
+    <row r="10" s="2" customFormat="1" spans="1:1">
       <c r="A10" s="5">
         <v>42633</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1">
+    <row r="11" s="2" customFormat="1" spans="1:1">
       <c r="A11" s="5">
         <v>42634</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1">
+    <row r="12" s="2" customFormat="1" spans="1:1">
       <c r="A12" s="5">
         <v>42635</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1">
+    <row r="13" s="2" customFormat="1" spans="1:1">
       <c r="A13" s="5">
         <v>42636</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1">
+    <row r="14" s="2" customFormat="1" spans="1:1">
       <c r="A14" s="5">
         <v>42637</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1">
+    <row r="15" s="2" customFormat="1" spans="1:1">
       <c r="A15" s="5">
         <v>42638</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1">
+    <row r="16" s="2" customFormat="1" spans="1:1">
       <c r="A16" s="5">
         <v>42639</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="2" customFormat="1">
+    <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="5">
         <v>42640</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="2" customFormat="1">
+    <row r="18" s="2" customFormat="1" spans="1:1">
       <c r="A18" s="5">
         <v>42641</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="2" customFormat="1">
+    <row r="19" s="2" customFormat="1" spans="1:1">
       <c r="A19" s="5">
         <v>42642</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="2" customFormat="1">
+    <row r="20" s="2" customFormat="1" spans="1:1">
       <c r="A20" s="5">
         <v>42643</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="2" customFormat="1">
+    <row r="21" s="2" customFormat="1" spans="1:1">
       <c r="A21" s="5">
         <v>42644</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="2" customFormat="1">
+    <row r="22" s="2" customFormat="1" spans="1:1">
       <c r="A22" s="5">
         <v>42645</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="2" customFormat="1">
+    <row r="23" s="2" customFormat="1" spans="1:1">
       <c r="A23" s="5">
         <v>42646</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="2" customFormat="1">
+    <row r="24" s="2" customFormat="1" spans="1:1">
       <c r="A24" s="5">
         <v>42647</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="2" customFormat="1">
+    <row r="25" s="2" customFormat="1" spans="1:1">
       <c r="A25" s="5">
         <v>42648</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="2" customFormat="1">
+    <row r="26" s="2" customFormat="1" spans="1:1">
       <c r="A26" s="5">
         <v>42649</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="2" customFormat="1">
+    <row r="27" s="2" customFormat="1" spans="1:1">
       <c r="A27" s="5">
         <v>42650</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="2" customFormat="1">
+    <row r="28" s="2" customFormat="1" spans="1:1">
       <c r="A28" s="5">
         <v>42651</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="2" customFormat="1">
+    <row r="29" s="2" customFormat="1" spans="1:1">
       <c r="A29" s="5">
         <v>42652</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="2" customFormat="1">
+    <row r="30" s="2" customFormat="1" spans="1:1">
       <c r="A30" s="5">
         <v>42653</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="2" customFormat="1">
+    <row r="31" s="2" customFormat="1" spans="1:1">
       <c r="A31" s="5">
         <v>42654</v>
       </c>
     </row>
-    <row r="32" spans="1:1" s="2" customFormat="1">
+    <row r="32" s="2" customFormat="1" spans="1:1">
       <c r="A32" s="5">
         <v>42655</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="2" customFormat="1">
+    <row r="33" s="2" customFormat="1" spans="1:1">
       <c r="A33" s="5">
         <v>42656</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="2" customFormat="1">
+    <row r="34" s="2" customFormat="1" spans="1:1">
       <c r="A34" s="5">
         <v>42657</v>
       </c>
     </row>
-    <row r="35" spans="1:1" s="2" customFormat="1">
+    <row r="35" s="2" customFormat="1" spans="1:1">
       <c r="A35" s="5">
         <v>42658</v>
       </c>
     </row>
-    <row r="36" spans="1:1" s="2" customFormat="1">
+    <row r="36" s="2" customFormat="1" spans="1:1">
       <c r="A36" s="5">
         <v>42659</v>
       </c>
     </row>
-    <row r="37" spans="1:1" s="2" customFormat="1">
+    <row r="37" s="2" customFormat="1" spans="1:1">
       <c r="A37" s="5">
         <v>42660</v>
       </c>
     </row>
-    <row r="38" spans="1:1" s="2" customFormat="1">
+    <row r="38" s="2" customFormat="1" spans="1:1">
       <c r="A38" s="5">
         <v>42661</v>
       </c>
     </row>
-    <row r="39" spans="1:1" s="2" customFormat="1">
+    <row r="39" s="2" customFormat="1" spans="1:1">
       <c r="A39" s="5">
         <v>42662</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
@@ -2095,35 +2753,35 @@
     <col min="4" max="16384" width="17.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="2">
@@ -2133,29 +2791,29 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" customHeight="1" spans="2:2">
       <c r="B4" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>
@@ -2172,8 +2830,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H31"/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -188,6 +188,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>20</t>
@@ -316,11 +317,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -342,12 +343,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -358,6 +383,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,38 +408,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,19 +448,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,42 +477,17 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -505,24 +505,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -535,6 +553,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -589,6 +655,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -608,84 +686,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,26 +714,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,6 +734,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,45 +770,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -811,6 +778,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -819,10 +819,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,133 +831,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,7 +986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -1441,7 +1441,7 @@
         <v>200</v>
       </c>
       <c r="H2" s="7">
-        <f>G2*0.8</f>
+        <f t="shared" ref="H2:H8" si="0">G2*0.8</f>
         <v>160</v>
       </c>
       <c r="I2" s="7">
@@ -1462,7 +1462,7 @@
         <v>120</v>
       </c>
       <c r="N2" s="7">
-        <f>M2*0.2</f>
+        <f t="shared" ref="N2:N8" si="1">M2*0.2</f>
         <v>24</v>
       </c>
       <c r="O2" s="7" t="s">
@@ -1498,14 +1498,14 @@
         <v>50</v>
       </c>
       <c r="H3" s="7">
-        <f>G3*0.8</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I3" s="7">
         <v>100</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J8" si="0">I3*0.8</f>
+        <f t="shared" ref="J3:J8" si="2">I3*0.8</f>
         <v>80</v>
       </c>
       <c r="K3" s="7">
@@ -1519,14 +1519,14 @@
         <v>40</v>
       </c>
       <c r="N3" s="7">
-        <f>M3*0.2</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="7">
-        <f t="shared" ref="P3:P10" si="1">M3*0.8</f>
+        <f t="shared" ref="P3:P10" si="3">M3*0.8</f>
         <v>32</v>
       </c>
       <c r="Q3" s="7" t="s">
@@ -1555,14 +1555,14 @@
         <v>300</v>
       </c>
       <c r="H4" s="7">
-        <f>G4*0.8</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="I4" s="7">
         <v>500</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -1572,18 +1572,18 @@
         <v>23</v>
       </c>
       <c r="M4" s="7">
-        <f t="shared" ref="M4:M31" si="2">J4-H4</f>
+        <f t="shared" ref="M4:M31" si="4">J4-H4</f>
         <v>160</v>
       </c>
       <c r="N4" s="7">
-        <f>M4*0.2</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
@@ -1612,14 +1612,14 @@
         <v>350</v>
       </c>
       <c r="H5" s="7">
-        <f>G5*0.8</f>
+        <f t="shared" si="0"/>
         <v>280</v>
       </c>
       <c r="I5" s="7">
         <v>450</v>
       </c>
       <c r="J5" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="K5" s="7" t="s">
@@ -1629,18 +1629,18 @@
         <v>23</v>
       </c>
       <c r="M5" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="N5" s="7">
-        <f>M5*0.2</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="Q5" s="7" t="s">
@@ -1669,7 +1669,7 @@
         <v>800</v>
       </c>
       <c r="H6" s="7">
-        <f>G6*0.8</f>
+        <f t="shared" si="0"/>
         <v>640</v>
       </c>
       <c r="I6" s="7">
@@ -1688,14 +1688,14 @@
         <v>560</v>
       </c>
       <c r="N6" s="7">
-        <f>M6*0.2</f>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>45</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>448</v>
       </c>
       <c r="Q6" s="8" t="s">
@@ -1724,7 +1724,7 @@
         <v>300</v>
       </c>
       <c r="H7" s="7">
-        <f>G7*0.8</f>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="I7" s="7">
@@ -1743,14 +1743,14 @@
         <v>260</v>
       </c>
       <c r="N7" s="7">
-        <f>M7*0.2</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="P7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
       <c r="Q7" s="8" t="s">
@@ -1781,14 +1781,14 @@
         <v>100</v>
       </c>
       <c r="H8" s="7">
-        <f>G8*0.8</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="I8" s="7">
         <v>200</v>
       </c>
       <c r="J8" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K8" s="7">
@@ -1798,18 +1798,18 @@
         <v>23</v>
       </c>
       <c r="M8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="N8" s="7">
-        <f>M8*0.2</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="Q8" s="7" t="s">
@@ -1831,7 +1831,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N9" s="7"/>
@@ -1839,7 +1839,7 @@
         <v>24</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q9" s="7"/>
@@ -1859,7 +1859,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10" s="7"/>
@@ -1867,7 +1867,7 @@
         <v>24</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q10" s="7"/>
@@ -1887,7 +1887,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11" s="7"/>
@@ -1912,7 +1912,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12" s="7"/>
@@ -1937,7 +1937,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N13" s="7"/>
@@ -1962,7 +1962,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N14" s="7"/>
@@ -1987,7 +1987,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15" s="7"/>
@@ -2012,7 +2012,7 @@
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16" s="7"/>
@@ -2037,7 +2037,7 @@
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17" s="7"/>
@@ -2062,7 +2062,7 @@
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N18" s="7"/>
@@ -2087,7 +2087,7 @@
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19" s="7"/>
@@ -2112,7 +2112,7 @@
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20" s="7"/>
@@ -2137,7 +2137,7 @@
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21" s="7"/>
@@ -2162,7 +2162,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22" s="7"/>
@@ -2187,7 +2187,7 @@
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N23" s="7"/>
@@ -2212,7 +2212,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N24" s="7"/>
@@ -2237,7 +2237,7 @@
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N25" s="7"/>
@@ -2262,7 +2262,7 @@
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N26" s="7"/>
@@ -2287,7 +2287,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N27" s="7"/>
@@ -2312,7 +2312,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N28" s="7"/>
@@ -2337,7 +2337,7 @@
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N29" s="7"/>
@@ -2362,7 +2362,7 @@
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
       <c r="M30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N30" s="7"/>
@@ -2387,7 +2387,7 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N31" s="7"/>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -317,11 +317,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -347,22 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -383,14 +367,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,30 +400,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -469,10 +421,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,6 +505,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -517,175 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,26 +714,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,17 +744,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,30 +811,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -819,145 +819,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,7 +1343,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -1825,21 +1825,30 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <f t="shared" ref="H9:H15" si="5">G9*0.8</f>
+        <v>0</v>
+      </c>
       <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
+      <c r="J9" s="7">
+        <f t="shared" ref="J9:J15" si="6">I9*0.8</f>
+        <v>0</v>
+      </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <f t="shared" ref="M9:M15" si="7">J9-H9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" ref="N9:N15" si="8">M9*0.2</f>
+        <v>0</v>
+      </c>
       <c r="O9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P9:P15" si="9">M9*0.8</f>
         <v>0</v>
       </c>
       <c r="Q9" s="7"/>
@@ -1853,21 +1862,30 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
+      <c r="J10" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="7"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="O10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q10" s="7"/>
@@ -1881,20 +1899,32 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="J11" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="7"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="7"/>
+      <c r="P11" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
     </row>
@@ -1906,20 +1936,32 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
+      <c r="J12" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="7"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="O12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P12" s="7"/>
+      <c r="P12" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
     </row>
@@ -1931,20 +1973,32 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="J13" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="7"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="O13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P13" s="7"/>
+      <c r="P13" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
     </row>
@@ -1956,20 +2010,32 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="J14" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="7"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="O14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="7"/>
+      <c r="P14" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
     </row>
@@ -1981,20 +2047,32 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="H15" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
+      <c r="J15" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="7"/>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="O15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P15" s="7"/>
+      <c r="P15" s="7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
     </row>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="下单项目" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>拳胞软件技术服务有限公司</t>
   </si>
@@ -332,6 +332,9 @@
     <t>给业务员发工资</t>
   </si>
   <si>
+    <t>项目上游/客户结款</t>
+  </si>
+  <si>
     <t>给客服发工资</t>
   </si>
   <si>
@@ -346,11 +349,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1379,8 +1382,8 @@
   <sheetPr/>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N34" sqref="N12:N34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -2152,7 +2155,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2375,8 +2378,8 @@
   <sheetPr/>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18" customHeight="1"/>
@@ -2682,9 +2685,21 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:1">
+    <row r="18" customHeight="1" spans="1:5">
       <c r="A18" s="3">
         <v>42968</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="5">
+        <v>17080005</v>
+      </c>
+      <c r="E18" s="2">
+        <v>300</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
@@ -2704,7 +2719,7 @@
     </row>
     <row r="25" customHeight="1" spans="14:14">
       <c r="N25" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="14:14">
@@ -2719,7 +2734,7 @@
     </row>
     <row r="28" customHeight="1" spans="14:14">
       <c r="N28" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="14:14">
@@ -2734,11 +2749,11 @@
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="F31" s="1">
         <f>SUM(F2:F30)</f>
@@ -2746,10 +2761,10 @@
       </c>
       <c r="G31" s="6">
         <f>E31-F31</f>
-        <v>-144</v>
+        <v>156</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>拳胞软件技术服务有限公司</t>
   </si>
@@ -265,6 +265,42 @@
     <t>2017.08.24</t>
   </si>
   <si>
+    <t>想在此基础上完善一个预防碰撞的功能，并给出相应的测试案例，
+1是车应该与前面车保持一定距离，2是在危险距离内要刹车，从init.m文件打开，然后就可以运行了</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有偿代做MATLAB兼职群
+299415518
+客服小侠
+</t>
+  </si>
+  <si>
+    <t>matlab--大头猫神
+2598691646</t>
+  </si>
+  <si>
+    <t>2017.08.24
+中午12点之前</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java的jgrasp
+您给个实惠的价格 我这是个长期活儿 得有十一个左右  我这是个连续作业 要写完一个提交了才有下一个 </t>
+  </si>
+  <si>
+    <t>接单团队
+326890056
+最美年华
+1556142413
+技术三部</t>
+  </si>
+  <si>
+    <t>android
+505763305</t>
+  </si>
+  <si>
+    <t>2017.08.22</t>
+  </si>
+  <si>
     <t>已交付</t>
   </si>
   <si>
@@ -349,11 +385,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -377,13 +413,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,6 +441,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -420,6 +456,46 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,46 +545,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -545,187 +581,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,6 +786,65 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,65 +882,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -859,10 +895,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,133 +907,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1382,8 +1418,8 @@
   <sheetPr/>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -1898,40 +1934,112 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="8:15">
+    <row r="12" ht="81" spans="1:17">
+      <c r="A12" s="5">
+        <v>17080009</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="5">
+        <v>800</v>
+      </c>
       <c r="H12" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>640</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1200</v>
+      </c>
+      <c r="J12" s="5">
+        <v>123569940</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>560</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="8:15">
+        <v>448</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" ht="81" spans="1:17">
+      <c r="A13" s="5">
+        <v>17080010</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="5">
+        <v>100</v>
+      </c>
       <c r="H13" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="I13" s="5">
+        <v>100</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="8:27">
@@ -1973,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="8:27">
@@ -2174,7 +2282,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2195,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -2204,7 +2312,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
@@ -2216,10 +2324,10 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>23</v>
@@ -2227,7 +2335,7 @@
       <c r="F2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -2236,23 +2344,23 @@
         <v>42967</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
@@ -2379,7 +2487,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18" customHeight="1"/>
@@ -2392,25 +2500,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:5">
@@ -2418,10 +2526,10 @@
         <v>42952</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>18</v>
@@ -2435,10 +2543,10 @@
         <v>42952</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -2452,10 +2560,10 @@
         <v>42952</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
@@ -2469,10 +2577,10 @@
         <v>42952</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
@@ -2486,10 +2594,10 @@
         <v>42956</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>27</v>
@@ -2503,10 +2611,10 @@
         <v>42956</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>27</v>
@@ -2520,10 +2628,10 @@
         <v>42958</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>31</v>
@@ -2537,10 +2645,10 @@
         <v>42962</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>31</v>
@@ -2554,10 +2662,10 @@
         <v>42960</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>31</v>
@@ -2571,10 +2679,10 @@
         <v>42961</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>37</v>
@@ -2588,10 +2696,10 @@
         <v>42962</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5">
         <v>17080007</v>
@@ -2605,10 +2713,10 @@
         <v>42963</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D13" s="5">
         <v>17080007</v>
@@ -2622,10 +2730,10 @@
         <v>42964</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>37</v>
@@ -2639,10 +2747,10 @@
         <v>42965</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>37</v>
@@ -2656,10 +2764,10 @@
         <v>42966</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>37</v>
@@ -2673,10 +2781,10 @@
         <v>42967</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D17" s="5">
         <v>17080007</v>
@@ -2690,10 +2798,10 @@
         <v>42968</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D18" s="5">
         <v>17080005</v>
@@ -2702,14 +2810,38 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:1">
+    <row r="19" customHeight="1" spans="1:5">
       <c r="A19" s="3">
         <v>42969</v>
       </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:1">
+      <c r="B19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="5">
+        <v>17080005</v>
+      </c>
+      <c r="E19" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="3">
         <v>42970</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="5">
+        <v>17080005</v>
+      </c>
+      <c r="F20" s="2">
+        <v>300</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
@@ -2719,52 +2851,52 @@
     </row>
     <row r="25" customHeight="1" spans="14:14">
       <c r="N25" s="4" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="14:14">
       <c r="N26" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="14:14">
       <c r="N27" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="14:14">
       <c r="N28" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="14:14">
       <c r="N29" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="14:14">
       <c r="N30" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>
-        <v>1300</v>
+        <v>1900</v>
       </c>
       <c r="F31" s="1">
         <f>SUM(F2:F30)</f>
-        <v>1144</v>
+        <v>1444</v>
       </c>
       <c r="G31" s="6">
         <f>E31-F31</f>
-        <v>156</v>
+        <v>456</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="下单项目" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>拳胞软件技术服务有限公司</t>
   </si>
@@ -301,6 +301,22 @@
     <t>2017.08.22</t>
   </si>
   <si>
+    <t>a安卓做个数据适配</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有偿极客程序代写群2
+418544583
+客服小洁
+</t>
+  </si>
+  <si>
+    <t>java
+676122503</t>
+  </si>
+  <si>
+    <t>2017.08.28</t>
+  </si>
+  <si>
     <t>已交付</t>
   </si>
   <si>
@@ -386,10 +402,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -416,6 +432,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -435,13 +481,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,31 +554,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,9 +569,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,49 +597,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,6 +705,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -647,7 +759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,109 +777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +806,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -801,15 +841,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -864,21 +895,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -895,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,133 +923,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1418,8 +1434,8 @@
   <sheetPr/>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -1928,7 +1944,7 @@
         <v>1232</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>48</v>
@@ -2042,22 +2058,58 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="8:27">
+    <row r="14" ht="67.5" spans="1:27">
+      <c r="A14" s="5">
+        <v>17080011</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="5">
+        <v>150</v>
+      </c>
       <c r="H14" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="I14" s="5">
+        <v>160</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="M14" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>47</v>
@@ -2081,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="8:27">
@@ -2282,7 +2334,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2303,7 +2355,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -2312,7 +2364,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
@@ -2324,10 +2376,10 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>23</v>
@@ -2335,7 +2387,7 @@
       <c r="F2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -2344,23 +2396,23 @@
         <v>42967</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
@@ -2486,7 +2538,7 @@
   <sheetPr/>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -2500,25 +2552,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:5">
@@ -2526,10 +2578,10 @@
         <v>42952</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>18</v>
@@ -2543,10 +2595,10 @@
         <v>42952</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -2560,10 +2612,10 @@
         <v>42952</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
@@ -2577,10 +2629,10 @@
         <v>42952</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
@@ -2594,10 +2646,10 @@
         <v>42956</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>27</v>
@@ -2611,10 +2663,10 @@
         <v>42956</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>27</v>
@@ -2628,10 +2680,10 @@
         <v>42958</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>31</v>
@@ -2645,10 +2697,10 @@
         <v>42962</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>31</v>
@@ -2662,10 +2714,10 @@
         <v>42960</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>31</v>
@@ -2679,10 +2731,10 @@
         <v>42961</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>37</v>
@@ -2696,10 +2748,10 @@
         <v>42962</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D12" s="5">
         <v>17080007</v>
@@ -2713,10 +2765,10 @@
         <v>42963</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D13" s="5">
         <v>17080007</v>
@@ -2730,10 +2782,10 @@
         <v>42964</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>37</v>
@@ -2747,10 +2799,10 @@
         <v>42965</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>37</v>
@@ -2764,10 +2816,10 @@
         <v>42966</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>37</v>
@@ -2781,10 +2833,10 @@
         <v>42967</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5">
         <v>17080007</v>
@@ -2798,10 +2850,10 @@
         <v>42968</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D18" s="5">
         <v>17080005</v>
@@ -2815,10 +2867,10 @@
         <v>42969</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D19" s="5">
         <v>17080005</v>
@@ -2832,10 +2884,10 @@
         <v>42970</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D20" s="5">
         <v>17080005</v>
@@ -2851,37 +2903,37 @@
     </row>
     <row r="25" customHeight="1" spans="14:14">
       <c r="N25" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="14:14">
       <c r="N26" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="14:14">
       <c r="N27" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="14:14">
       <c r="N28" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="14:14">
       <c r="N29" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="14:14">
       <c r="N30" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>
@@ -2896,7 +2948,7 @@
         <v>456</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="下单项目" sheetId="1" r:id="rId1"/>
@@ -279,8 +279,8 @@
 2598691646</t>
   </si>
   <si>
-    <t>2017.08.24
-中午12点之前</t>
+    <t>2017.08.27
+下午</t>
   </si>
   <si>
     <t xml:space="preserve">java的jgrasp
@@ -369,13 +369,10 @@
     <t>结余</t>
   </si>
   <si>
-    <t>收款</t>
-  </si>
-  <si>
     <t>项目上游结款</t>
   </si>
   <si>
-    <t>付款</t>
+    <t>支出</t>
   </si>
   <si>
     <t>给技术员发工资</t>
@@ -387,13 +384,16 @@
     <t>项目上游/客户结款</t>
   </si>
   <si>
+    <t>投资</t>
+  </si>
+  <si>
+    <t>带员工聚餐</t>
+  </si>
+  <si>
     <t>给客服发工资</t>
   </si>
   <si>
     <t>小  计</t>
-  </si>
-  <si>
-    <t>投资</t>
   </si>
 </sst>
 </file>
@@ -403,9 +403,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -432,21 +432,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -462,52 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -518,9 +457,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,14 +480,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,7 +517,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,6 +568,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -597,6 +597,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -621,25 +657,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,13 +741,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,96 +778,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,41 +806,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -856,17 +826,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -895,6 +854,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -903,6 +877,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -911,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,133 +923,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,8 +1434,8 @@
   <sheetPr/>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -1908,6 +1908,9 @@
       </c>
       <c r="D11" s="5" t="s">
         <v>57</v>
+      </c>
+      <c r="E11" s="5">
+        <v>18646322185</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>58</v>
@@ -2538,8 +2541,8 @@
   <sheetPr/>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="18" customHeight="1"/>
@@ -2573,15 +2576,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" ht="13.5" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>42952</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>18</v>
@@ -2595,10 +2598,10 @@
         <v>42952</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -2612,10 +2615,10 @@
         <v>42952</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
@@ -2629,10 +2632,10 @@
         <v>42952</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
@@ -2646,10 +2649,10 @@
         <v>42956</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>27</v>
@@ -2663,10 +2666,10 @@
         <v>42956</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>27</v>
@@ -2680,10 +2683,10 @@
         <v>42958</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>31</v>
@@ -2697,10 +2700,10 @@
         <v>42962</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>31</v>
@@ -2714,10 +2717,10 @@
         <v>42960</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>31</v>
@@ -2731,10 +2734,10 @@
         <v>42961</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>37</v>
@@ -2748,10 +2751,10 @@
         <v>42962</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D12" s="5">
         <v>17080007</v>
@@ -2765,10 +2768,10 @@
         <v>42963</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D13" s="5">
         <v>17080007</v>
@@ -2782,10 +2785,10 @@
         <v>42964</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>37</v>
@@ -2799,10 +2802,10 @@
         <v>42965</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>37</v>
@@ -2816,10 +2819,10 @@
         <v>42966</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>37</v>
@@ -2833,10 +2836,10 @@
         <v>42967</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="5">
         <v>17080007</v>
@@ -2850,10 +2853,10 @@
         <v>42968</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="5">
         <v>17080005</v>
@@ -2867,10 +2870,10 @@
         <v>42969</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="5">
         <v>17080005</v>
@@ -2884,10 +2887,10 @@
         <v>42970</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D20" s="5">
         <v>17080005</v>
@@ -2896,44 +2899,75 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:1">
+    <row r="21" customHeight="1" spans="1:6">
       <c r="A21" s="3">
+        <v>42970</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="3">
         <v>42971</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5">
+        <v>17080008</v>
+      </c>
+      <c r="F22" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="14:14">
+      <c r="N24" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="14:14">
       <c r="N25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="14:14">
       <c r="N26" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="14:14">
       <c r="N27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="14:14">
       <c r="N28" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="14:14">
       <c r="N29" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="14:14">
       <c r="N30" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>
@@ -2941,14 +2975,14 @@
       </c>
       <c r="F31" s="1">
         <f>SUM(F2:F30)</f>
-        <v>1444</v>
+        <v>2014</v>
       </c>
       <c r="G31" s="6">
         <f>E31-F31</f>
-        <v>456</v>
+        <v>-114</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2957,11 +2991,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B14 B15 B2:B13 B16:B1048576">
       <formula1>$N$29:$N$31</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C14 C15 C2:C13 C16:C1048576">
-      <formula1>$N$25:$N$28</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N28">
       <formula1>$N$25:$N$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20 C21:C22">
+      <formula1>$N$24:$N$28</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="下单项目" sheetId="1" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>欧大旷</t>
   </si>
   <si>
-    <t>开发中</t>
-  </si>
-  <si>
     <t>未结款</t>
   </si>
   <si>
@@ -240,6 +237,9 @@
     </r>
   </si>
   <si>
+    <t>开发中</t>
+  </si>
+  <si>
     <t>人才济济
 451322344</t>
   </si>
@@ -402,10 +402,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -432,6 +432,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -447,6 +462,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -457,9 +518,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,6 +541,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -487,22 +555,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,66 +577,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -597,61 +597,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -664,120 +778,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,11 +806,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -826,6 +856,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,21 +895,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -877,32 +903,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -911,10 +911,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -923,133 +923,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,8 +1434,8 @@
   <sheetPr/>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -1584,6 +1584,9 @@
       <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="E5" s="5">
+        <v>18351815167</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>22</v>
       </c>
@@ -1780,10 +1783,10 @@
         <v>448</v>
       </c>
       <c r="P8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
@@ -1791,13 +1794,13 @@
         <v>17080006</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>50</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>51</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>43</v>
@@ -1833,10 +1836,10 @@
         <v>208</v>
       </c>
       <c r="P9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -1950,7 +1953,7 @@
         <v>36</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:17">
@@ -2001,10 +2004,10 @@
         <v>448</v>
       </c>
       <c r="P12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" ht="81" spans="1:17">
@@ -2058,7 +2061,7 @@
         <v>36</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" ht="67.5" spans="1:27">
@@ -2109,13 +2112,13 @@
         <v>32</v>
       </c>
       <c r="P14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="AA14" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="8:27">
@@ -2187,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="12:12">
@@ -2541,7 +2544,7 @@
   <sheetPr/>
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2576,7 +2579,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="13.5" spans="1:5">
       <c r="A2" s="3">
         <v>42952</v>
       </c>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>拳胞软件技术服务有限公司</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>2017.08.04</t>
-  </si>
-  <si>
-    <t>结款一半</t>
   </si>
   <si>
     <t>17080004</t>
@@ -208,7 +205,7 @@
     <t>欧大旷</t>
   </si>
   <si>
-    <t>未结款</t>
+    <t>结款一半</t>
   </si>
   <si>
     <t>语言：Java   初中自动排课</t>
@@ -237,7 +234,10 @@
     </r>
   </si>
   <si>
-    <t>开发中</t>
+    <t>单子取消</t>
+  </si>
+  <si>
+    <t>未结款</t>
   </si>
   <si>
     <t>人才济济
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>2017.08.28</t>
+  </si>
+  <si>
+    <t>开发中</t>
   </si>
   <si>
     <t>已交付</t>
@@ -401,11 +404,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -627,157 +630,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,145 +914,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1434,8 +1437,8 @@
   <sheetPr/>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -1679,15 +1682,15 @@
         <v>26</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:17">
       <c r="A7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>20</v>
@@ -1696,7 +1699,7 @@
         <v>34</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="5">
         <v>350</v>
@@ -1741,16 +1744,16 @@
         <v>17080005</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="F8" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>43</v>
       </c>
       <c r="G8" s="5">
         <v>800</v>
@@ -1760,33 +1763,34 @@
         <v>640</v>
       </c>
       <c r="I8" s="5">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="J8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="5">
-        <v>560</v>
+        <f>I8-H8</f>
+        <v>260</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="2"/>
-        <v>448</v>
+        <v>208</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
@@ -1794,16 +1798,16 @@
         <v>17080006</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="F9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5">
         <v>300</v>
@@ -1816,10 +1820,10 @@
         <v>500</v>
       </c>
       <c r="J9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>44</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>45</v>
       </c>
       <c r="L9" s="5">
         <v>260</v>
@@ -1829,17 +1833,17 @@
         <v>52</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="2"/>
         <v>208</v>
       </c>
       <c r="P9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -1893,10 +1897,10 @@
         <v>64</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:17">
@@ -1950,10 +1954,10 @@
         <v>1232</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:17">
@@ -2004,13 +2008,13 @@
         <v>448</v>
       </c>
       <c r="P12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q12" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" ht="81" spans="1:17">
+    </row>
+    <row r="13" ht="81" spans="1:27">
       <c r="A13" s="5">
         <v>17080010</v>
       </c>
@@ -2058,10 +2062,13 @@
         <v>16</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="AA13" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="67.5" spans="1:27">
@@ -2112,13 +2119,13 @@
         <v>32</v>
       </c>
       <c r="P14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q14" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="AA14" s="5" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="8:27">
@@ -2139,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="8:27">
@@ -2160,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="8:27">
@@ -2190,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="12:12">
@@ -2290,7 +2297,7 @@
     </row>
     <row r="48" customHeight="1" spans="20:20">
       <c r="T48" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2298,12 +2305,15 @@
   <mergeCells count="1">
     <mergeCell ref="A1:Q2"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P15">
+      <formula1>$AA$14:$AA$18</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N34">
       <formula1>$T$47:$T$48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P10 P11:P15">
-      <formula1>$AA$14:$AA$18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P14">
+      <formula1>$AA$13:$AA$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q34">
       <formula1>$AA$16:$AA$18</formula1>
@@ -2340,7 +2350,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2361,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -2370,7 +2380,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
@@ -2382,10 +2392,10 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>23</v>
@@ -2393,7 +2403,7 @@
       <c r="F2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -2402,23 +2412,23 @@
         <v>42967</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
@@ -2558,25 +2568,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:5">
@@ -2584,10 +2594,10 @@
         <v>42952</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>18</v>
@@ -2601,10 +2611,10 @@
         <v>42952</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -2618,10 +2628,10 @@
         <v>42952</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
@@ -2635,10 +2645,10 @@
         <v>42952</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
@@ -2652,10 +2662,10 @@
         <v>42956</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>27</v>
@@ -2669,10 +2679,10 @@
         <v>42956</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>27</v>
@@ -2686,10 +2696,10 @@
         <v>42958</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>31</v>
@@ -2703,10 +2713,10 @@
         <v>42962</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>31</v>
@@ -2720,10 +2730,10 @@
         <v>42960</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>31</v>
@@ -2737,13 +2747,13 @@
         <v>42961</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
         <v>140</v>
@@ -2754,10 +2764,10 @@
         <v>42962</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="5">
         <v>17080007</v>
@@ -2771,10 +2781,10 @@
         <v>42963</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D13" s="5">
         <v>17080007</v>
@@ -2788,13 +2798,13 @@
         <v>42964</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2">
         <v>140</v>
@@ -2805,13 +2815,13 @@
         <v>42965</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2">
         <v>360</v>
@@ -2822,13 +2832,13 @@
         <v>42966</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2">
         <v>64</v>
@@ -2839,10 +2849,10 @@
         <v>42967</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D17" s="5">
         <v>17080007</v>
@@ -2856,10 +2866,10 @@
         <v>42968</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="5">
         <v>17080005</v>
@@ -2873,10 +2883,10 @@
         <v>42969</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D19" s="5">
         <v>17080005</v>
@@ -2890,10 +2900,10 @@
         <v>42970</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D20" s="5">
         <v>17080005</v>
@@ -2907,10 +2917,10 @@
         <v>42970</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F21" s="2">
         <v>90</v>
@@ -2921,10 +2931,10 @@
         <v>42971</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D22" s="5">
         <v>17080008</v>
@@ -2935,42 +2945,42 @@
     </row>
     <row r="24" customHeight="1" spans="14:14">
       <c r="N24" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="14:14">
       <c r="N25" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="14:14">
       <c r="N26" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="14:14">
       <c r="N27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="14:14">
       <c r="N28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="14:14">
       <c r="N29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="14:14">
       <c r="N30" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>
@@ -2985,7 +2995,7 @@
         <v>-114</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -205,9 +205,6 @@
     <t>欧大旷</t>
   </si>
   <si>
-    <t>结款一半</t>
-  </si>
-  <si>
     <t>语言：Java   初中自动排课</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
     <t>2017.08.22</t>
   </si>
   <si>
+    <t>结款一半</t>
+  </si>
+  <si>
     <t>a安卓做个数据适配</t>
   </si>
   <si>
@@ -404,11 +404,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -437,29 +437,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,6 +496,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,27 +559,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,6 +600,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -630,49 +738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,43 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,36 +781,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,16 +809,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -834,21 +834,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -859,6 +844,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -883,21 +898,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -914,145 +914,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,8 +1437,8 @@
   <sheetPr/>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -1759,8 +1759,7 @@
         <v>800</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="0"/>
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="I8" s="5">
         <v>900</v>
@@ -1772,25 +1771,25 @@
         <v>44</v>
       </c>
       <c r="L8" s="5">
-        <f>I8-H8</f>
-        <v>260</v>
+        <f t="shared" si="3"/>
+        <v>600</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>45</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="2"/>
-        <v>208</v>
+        <v>480</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:17">
@@ -1798,13 +1797,13 @@
         <v>17080006</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>42</v>
@@ -1840,10 +1839,10 @@
         <v>208</v>
       </c>
       <c r="P9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:17">
@@ -1854,16 +1853,16 @@
         <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="E10" s="5">
         <v>13547820884</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="5">
         <v>100</v>
@@ -1908,19 +1907,19 @@
         <v>17080008</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="E11" s="5">
         <v>18646322185</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5">
         <v>1200</v>
@@ -1965,16 +1964,16 @@
         <v>17080009</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="G12" s="5">
         <v>800</v>
@@ -2008,10 +2007,10 @@
         <v>448</v>
       </c>
       <c r="P12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" ht="81" spans="1:27">
@@ -2019,16 +2018,16 @@
         <v>17080010</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="G13" s="5">
         <v>100</v>
@@ -2062,13 +2061,13 @@
         <v>16</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="67.5" spans="1:27">
@@ -2119,10 +2118,10 @@
         <v>32</v>
       </c>
       <c r="P14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>71</v>
@@ -2167,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="8:27">
@@ -2197,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="12:12">

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
   <si>
     <t>拳胞软件技术服务有限公司</t>
   </si>
@@ -320,6 +320,22 @@
     <t>开发中</t>
   </si>
   <si>
+    <t>国外留学生的一个作业，java网站</t>
+  </si>
+  <si>
+    <t>人才济济
+451322344
+牛牛
+1875391267</t>
+  </si>
+  <si>
+    <t>慈世平
+283475236</t>
+  </si>
+  <si>
+    <t>2017.09.14</t>
+  </si>
+  <si>
     <t>已交付</t>
   </si>
   <si>
@@ -405,9 +421,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="23">
@@ -436,15 +452,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,26 +504,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,39 +549,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,14 +565,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -572,8 +573,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,19 +616,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,163 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,16 +825,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -828,7 +864,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -863,41 +899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -906,6 +907,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -914,145 +930,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1437,8 +1453,8 @@
   <sheetPr/>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -2127,25 +2143,61 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="8:27">
+    <row r="15" ht="67.5" spans="1:27">
+      <c r="A15" s="5">
+        <v>17080012</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="5">
+        <v>500</v>
+      </c>
       <c r="H15" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="I15" s="5">
+        <v>500</v>
+      </c>
+      <c r="J15" s="5">
+        <v>123569940</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="L15" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="8:27">
@@ -2349,7 +2401,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2370,7 +2422,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -2379,7 +2431,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
@@ -2391,10 +2443,10 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>23</v>
@@ -2402,7 +2454,7 @@
       <c r="F2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -2411,23 +2463,23 @@
         <v>42967</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
@@ -2567,25 +2619,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:5">
@@ -2593,10 +2645,10 @@
         <v>42952</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>18</v>
@@ -2610,10 +2662,10 @@
         <v>42952</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -2627,10 +2679,10 @@
         <v>42952</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
@@ -2644,10 +2696,10 @@
         <v>42952</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
@@ -2661,10 +2713,10 @@
         <v>42956</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>27</v>
@@ -2678,10 +2730,10 @@
         <v>42956</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>27</v>
@@ -2695,10 +2747,10 @@
         <v>42958</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>31</v>
@@ -2712,10 +2764,10 @@
         <v>42962</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>31</v>
@@ -2729,10 +2781,10 @@
         <v>42960</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>31</v>
@@ -2746,10 +2798,10 @@
         <v>42961</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>36</v>
@@ -2763,10 +2815,10 @@
         <v>42962</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D12" s="5">
         <v>17080007</v>
@@ -2780,10 +2832,10 @@
         <v>42963</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D13" s="5">
         <v>17080007</v>
@@ -2797,10 +2849,10 @@
         <v>42964</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>36</v>
@@ -2814,10 +2866,10 @@
         <v>42965</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>36</v>
@@ -2831,10 +2883,10 @@
         <v>42966</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>36</v>
@@ -2848,10 +2900,10 @@
         <v>42967</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D17" s="5">
         <v>17080007</v>
@@ -2865,10 +2917,10 @@
         <v>42968</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D18" s="5">
         <v>17080005</v>
@@ -2882,10 +2934,10 @@
         <v>42969</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D19" s="5">
         <v>17080005</v>
@@ -2899,10 +2951,10 @@
         <v>42970</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D20" s="5">
         <v>17080005</v>
@@ -2916,10 +2968,10 @@
         <v>42970</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F21" s="2">
         <v>90</v>
@@ -2930,10 +2982,10 @@
         <v>42971</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D22" s="5">
         <v>17080008</v>
@@ -2944,42 +2996,42 @@
     </row>
     <row r="24" customHeight="1" spans="14:14">
       <c r="N24" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="14:14">
       <c r="N25" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="14:14">
       <c r="N26" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="14:14">
       <c r="N27" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="14:14">
       <c r="N28" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="14:14">
       <c r="N29" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="14:14">
       <c r="N30" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>
@@ -2994,7 +3046,7 @@
         <v>-114</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/项目汇总.xlsx
+++ b/项目汇总.xlsx
@@ -12,7 +12,7 @@
     <sheet name="账务" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">下单项目!$A$3:$Q$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">下单项目!$A$3:$Q$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">账务!$A$1:$H$31</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>拳胞软件技术服务有限公司</t>
   </si>
@@ -298,9 +298,6 @@
     <t>2017.08.22</t>
   </si>
   <si>
-    <t>结款一半</t>
-  </si>
-  <si>
     <t>a安卓做个数据适配</t>
   </si>
   <si>
@@ -337,6 +334,29 @@
   </si>
   <si>
     <t>已交付</t>
+  </si>
+  <si>
+    <t>java作业</t>
+  </si>
+  <si>
+    <t>人才济济
+451322344
+最美年华
+1556142413</t>
+  </si>
+  <si>
+    <t>小T就是帅-java3
+472438203</t>
+  </si>
+  <si>
+    <t>结款一半</t>
+  </si>
+  <si>
+    <t>kaka-18696005810
+351139863</t>
+  </si>
+  <si>
+    <t>2017.10.2</t>
   </si>
   <si>
     <t>日期</t>
@@ -420,11 +440,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -460,7 +480,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,6 +495,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -482,16 +509,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,9 +538,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,14 +569,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -542,8 +576,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,44 +615,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -616,13 +636,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,49 +774,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,54 +810,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -749,54 +817,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,13 +845,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,30 +865,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -899,6 +899,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -907,21 +942,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -930,10 +950,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,133 +962,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1453,8 +1473,8 @@
   <sheetPr/>
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -2080,7 +2100,7 @@
         <v>26</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="AA13" s="5" t="s">
         <v>49</v>
@@ -2091,16 +2111,16 @@
         <v>17080011</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="5">
         <v>150</v>
@@ -2140,24 +2160,24 @@
         <v>50</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:27">
       <c r="A15" s="5">
-        <v>17080012</v>
+        <v>17090012</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="G15" s="5">
         <v>500</v>
@@ -2191,52 +2211,127 @@
         <v>80</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="Q15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="AA15" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:27">
+      <c r="A16" s="5">
+        <v>17090013</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="8:27">
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="5">
+        <v>18061845315</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="5">
+        <v>400</v>
+      </c>
       <c r="H16" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>320</v>
+      </c>
+      <c r="I16" s="5">
+        <v>600</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="L16" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>224</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="8:27">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:27">
+      <c r="A17" s="5">
+        <v>17090014</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="5">
+        <v>300</v>
+      </c>
       <c r="H17" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="I17" s="5">
+        <v>600</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="L17" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>288</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="AA17" s="5" t="s">
         <v>26</v>
@@ -2352,21 +2447,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:Q34"/>
+  <autoFilter ref="A3:Q35"/>
   <mergeCells count="1">
     <mergeCell ref="A1:Q2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P15">
-      <formula1>$AA$14:$AA$18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P15 P4:P14">
+      <formula1>$AA$13:$AA$18</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N4:N34">
       <formula1>$T$47:$T$48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P4:P14">
-      <formula1>$AA$13:$AA$18</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P16:P23">
+      <formula1>$AA$14:$AA$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q4:Q15 Q16:Q23 Q24:Q34">
       <formula1>$AA$16:$AA$18</formula1>
     </dataValidation>
   </dataValidations>
@@ -2401,7 +2496,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:12">
       <c r="A1" s="3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2422,7 +2517,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>10</v>
@@ -2431,7 +2526,7 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>13</v>
@@ -2443,10 +2538,10 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>23</v>
@@ -2454,7 +2549,7 @@
       <c r="F2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="K2" s="4"/>
     </row>
@@ -2463,23 +2558,23 @@
         <v>42967</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:10">
@@ -2619,25 +2714,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" ht="13.5" spans="1:5">
@@ -2645,10 +2740,10 @@
         <v>42952</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>18</v>
@@ -2662,10 +2757,10 @@
         <v>42952</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>18</v>
@@ -2679,10 +2774,10 @@
         <v>42952</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>18</v>
@@ -2696,10 +2791,10 @@
         <v>42952</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>27</v>
@@ -2713,10 +2808,10 @@
         <v>42956</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>27</v>
@@ -2730,10 +2825,10 @@
         <v>42956</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>27</v>
@@ -2747,10 +2842,10 @@
         <v>42958</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>31</v>
@@ -2764,10 +2859,10 @@
         <v>42962</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>31</v>
@@ -2781,10 +2876,10 @@
         <v>42960</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>31</v>
@@ -2798,10 +2893,10 @@
         <v>42961</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>36</v>
@@ -2815,10 +2910,10 @@
         <v>42962</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D12" s="5">
         <v>17080007</v>
@@ -2832,10 +2927,10 @@
         <v>42963</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D13" s="5">
         <v>17080007</v>
@@ -2849,10 +2944,10 @@
         <v>42964</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>36</v>
@@ -2866,10 +2961,10 @@
         <v>42965</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>36</v>
@@ -2883,10 +2978,10 @@
         <v>42966</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>36</v>
@@ -2900,10 +2995,10 @@
         <v>42967</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D17" s="5">
         <v>17080007</v>
@@ -2917,10 +3012,10 @@
         <v>42968</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D18" s="5">
         <v>17080005</v>
@@ -2934,10 +3029,10 @@
         <v>42969</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D19" s="5">
         <v>17080005</v>
@@ -2951,10 +3046,10 @@
         <v>42970</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D20" s="5">
         <v>17080005</v>
@@ -2968,10 +3063,10 @@
         <v>42970</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F21" s="2">
         <v>90</v>
@@ -2982,10 +3077,10 @@
         <v>42971</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D22" s="5">
         <v>17080008</v>
@@ -2996,42 +3091,42 @@
     </row>
     <row r="24" customHeight="1" spans="14:14">
       <c r="N24" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="14:14">
       <c r="N25" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="14:14">
       <c r="N26" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="14:14">
       <c r="N27" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="14:14">
       <c r="N28" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="14:14">
       <c r="N29" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="14:14">
       <c r="N30" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E31" s="1">
         <f>SUM(E2:E30)</f>
@@ -3046,7 +3141,7 @@
         <v>-114</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
